--- a/STATEMENT_FOR_THE_MONTH_OF_MAR_23_SVT_BALA_BILLNO.xlsx
+++ b/STATEMENT_FOR_THE_MONTH_OF_MAR_23_SVT_BALA_BILLNO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/Laxmi_Stmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6908" documentId="11_E3A9290E0A779A5D24218375142AB5EEAB4AD6E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CD90EE-E8FF-4351-83DC-F3649F658C48}"/>
+  <xr:revisionPtr revIDLastSave="6949" documentId="11_E3A9290E0A779A5D24218375142AB5EEAB4AD6E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950B39D4-6C4D-4361-94C5-A868E14AD825}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="553">
   <si>
     <t>SL</t>
   </si>
@@ -1697,6 +1697,21 @@
   </si>
   <si>
     <t>6805</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>February Month Balance</t>
+  </si>
+  <si>
+    <t>Amount received on May-04</t>
+  </si>
+  <si>
+    <t>March Month Amount</t>
+  </si>
+  <si>
+    <t>Net Balance</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1722,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1761,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1918,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2040,30 +2062,6 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2091,6 +2089,39 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2108,6 +2139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2431,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Y246"/>
+  <dimension ref="B1:Y254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="J238" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="M252" sqref="M252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -2443,7 +2478,7 @@
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="41" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.36328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.90625" style="1" customWidth="1"/>
@@ -2460,90 +2495,90 @@
     <col min="20" max="20" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.7265625" style="1" customWidth="1"/>
     <col min="22" max="22" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.90625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="2:23" ht="32.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="47"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="47"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="56"/>
     </row>
     <row r="5" spans="2:23" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2558,7 +2593,7 @@
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="45" t="s">
         <v>311</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2609,7 +2644,7 @@
       <c r="V5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="56" t="s">
+      <c r="W5" s="48" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2626,7 +2661,7 @@
       <c r="E6" s="35">
         <v>44987</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="46" t="s">
         <v>336</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -2642,7 +2677,7 @@
         <v>97764</v>
       </c>
       <c r="K6" s="34">
-        <f>J6-I6</f>
+        <f t="shared" ref="K6:K69" si="0">J6-I6</f>
         <v>53</v>
       </c>
       <c r="L6" s="36">
@@ -2670,7 +2705,7 @@
       <c r="V6" s="33">
         <v>100</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="49">
         <f>SUM(T6:V6)</f>
         <v>2900</v>
       </c>
@@ -2688,7 +2723,7 @@
       <c r="E7" s="35">
         <v>44988</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="46" t="s">
         <v>337</v>
       </c>
       <c r="G7" s="32" t="s">
@@ -2704,7 +2739,7 @@
         <v>97805</v>
       </c>
       <c r="K7" s="34">
-        <f>J7-I7</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="L7" s="36">
@@ -2736,8 +2771,8 @@
       <c r="V7" s="33">
         <v>0</v>
       </c>
-      <c r="W7" s="57">
-        <f t="shared" ref="W7:W41" si="0">SUM(T7:V7)</f>
+      <c r="W7" s="49">
+        <f t="shared" ref="W7:W41" si="1">SUM(T7:V7)</f>
         <v>4760</v>
       </c>
     </row>
@@ -2754,7 +2789,7 @@
       <c r="E8" s="35">
         <v>44989</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="46" t="s">
         <v>338</v>
       </c>
       <c r="G8" s="32" t="s">
@@ -2770,7 +2805,7 @@
         <v>97870</v>
       </c>
       <c r="K8" s="34">
-        <f>J8-I8</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="L8" s="36">
@@ -2802,8 +2837,8 @@
       <c r="V8" s="33">
         <v>0</v>
       </c>
-      <c r="W8" s="57">
-        <f t="shared" si="0"/>
+      <c r="W8" s="49">
+        <f t="shared" si="1"/>
         <v>3640</v>
       </c>
     </row>
@@ -2820,7 +2855,7 @@
       <c r="E9" s="35">
         <v>44988</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="46" t="s">
         <v>339</v>
       </c>
       <c r="G9" s="32" t="s">
@@ -2836,7 +2871,7 @@
         <v>82240</v>
       </c>
       <c r="K9" s="34">
-        <f>J9-I9</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="L9" s="34" t="s">
@@ -2864,8 +2899,8 @@
       <c r="V9" s="33">
         <v>40</v>
       </c>
-      <c r="W9" s="57">
-        <f t="shared" si="0"/>
+      <c r="W9" s="49">
+        <f t="shared" si="1"/>
         <v>1840</v>
       </c>
     </row>
@@ -2882,7 +2917,7 @@
       <c r="E10" s="35">
         <v>44989</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="46" t="s">
         <v>340</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -2898,7 +2933,7 @@
         <v>175887</v>
       </c>
       <c r="K10" s="34">
-        <f>J10-I10</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="L10" s="34" t="s">
@@ -2926,8 +2961,8 @@
       <c r="V10" s="33">
         <v>0</v>
       </c>
-      <c r="W10" s="57">
-        <f t="shared" si="0"/>
+      <c r="W10" s="49">
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
     </row>
@@ -2944,7 +2979,7 @@
       <c r="E11" s="35">
         <v>44988</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="46" t="s">
         <v>341</v>
       </c>
       <c r="G11" s="32" t="s">
@@ -2960,7 +2995,7 @@
         <v>110612</v>
       </c>
       <c r="K11" s="34">
-        <f>J11-I11</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="L11" s="36">
@@ -2988,8 +3023,8 @@
       <c r="V11" s="33">
         <v>0</v>
       </c>
-      <c r="W11" s="57">
-        <f t="shared" si="0"/>
+      <c r="W11" s="49">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -3006,7 +3041,7 @@
       <c r="E12" s="35">
         <v>44989</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="46" t="s">
         <v>342</v>
       </c>
       <c r="G12" s="32" t="s">
@@ -3022,7 +3057,7 @@
         <v>137416</v>
       </c>
       <c r="K12" s="34">
-        <f>J12-I12</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L12" s="36">
@@ -3050,8 +3085,8 @@
       <c r="V12" s="33">
         <v>0</v>
       </c>
-      <c r="W12" s="57">
-        <f t="shared" si="0"/>
+      <c r="W12" s="49">
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
     </row>
@@ -3068,7 +3103,7 @@
       <c r="E13" s="35">
         <v>44988</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="46" t="s">
         <v>343</v>
       </c>
       <c r="G13" s="32" t="s">
@@ -3084,7 +3119,7 @@
         <v>212460</v>
       </c>
       <c r="K13" s="34">
-        <f>J13-I13</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="L13" s="34" t="s">
@@ -3112,8 +3147,8 @@
       <c r="V13" s="33">
         <v>0</v>
       </c>
-      <c r="W13" s="57">
-        <f t="shared" si="0"/>
+      <c r="W13" s="49">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -3130,7 +3165,7 @@
       <c r="E14" s="35">
         <v>44989</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="46" t="s">
         <v>344</v>
       </c>
       <c r="G14" s="32" t="s">
@@ -3146,7 +3181,7 @@
         <v>100530</v>
       </c>
       <c r="K14" s="34">
-        <f>J14-I14</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="L14" s="34" t="s">
@@ -3178,8 +3213,8 @@
       <c r="V14" s="33">
         <v>0</v>
       </c>
-      <c r="W14" s="57">
-        <f t="shared" si="0"/>
+      <c r="W14" s="49">
+        <f t="shared" si="1"/>
         <v>3520</v>
       </c>
     </row>
@@ -3196,7 +3231,7 @@
       <c r="E15" s="35">
         <v>44988</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="46" t="s">
         <v>345</v>
       </c>
       <c r="G15" s="32" t="s">
@@ -3212,7 +3247,7 @@
         <v>41067</v>
       </c>
       <c r="K15" s="34">
-        <f>J15-I15</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="L15" s="36">
@@ -3240,8 +3275,8 @@
       <c r="V15" s="33">
         <v>150</v>
       </c>
-      <c r="W15" s="57">
-        <f t="shared" si="0"/>
+      <c r="W15" s="49">
+        <f t="shared" si="1"/>
         <v>1950</v>
       </c>
     </row>
@@ -3258,7 +3293,7 @@
       <c r="E16" s="35">
         <v>44989</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="46" t="s">
         <v>346</v>
       </c>
       <c r="G16" s="32" t="s">
@@ -3274,7 +3309,7 @@
         <v>135389</v>
       </c>
       <c r="K16" s="34">
-        <f>J16-I16</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="L16" s="34" t="s">
@@ -3308,8 +3343,8 @@
       <c r="V16" s="33">
         <v>0</v>
       </c>
-      <c r="W16" s="57">
-        <f t="shared" si="0"/>
+      <c r="W16" s="49">
+        <f t="shared" si="1"/>
         <v>3520</v>
       </c>
     </row>
@@ -3326,7 +3361,7 @@
       <c r="E17" s="35">
         <v>44991</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="46" t="s">
         <v>347</v>
       </c>
       <c r="G17" s="32" t="s">
@@ -3342,7 +3377,7 @@
         <v>230</v>
       </c>
       <c r="K17" s="34">
-        <f>J17-I17</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="L17" s="34" t="s">
@@ -3370,8 +3405,8 @@
       <c r="V17" s="33">
         <v>165</v>
       </c>
-      <c r="W17" s="57">
-        <f t="shared" si="0"/>
+      <c r="W17" s="49">
+        <f t="shared" si="1"/>
         <v>7665</v>
       </c>
     </row>
@@ -3388,7 +3423,7 @@
       <c r="E18" s="35">
         <v>44992</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="46" t="s">
         <v>348</v>
       </c>
       <c r="G18" s="32" t="s">
@@ -3404,7 +3439,7 @@
         <v>295</v>
       </c>
       <c r="K18" s="34">
-        <f>J18-I18</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="L18" s="34" t="s">
@@ -3432,8 +3467,8 @@
       <c r="V18" s="33">
         <v>0</v>
       </c>
-      <c r="W18" s="57">
-        <f t="shared" si="0"/>
+      <c r="W18" s="49">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -3450,7 +3485,7 @@
       <c r="E19" s="35">
         <v>44993</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="46" t="s">
         <v>349</v>
       </c>
       <c r="G19" s="32" t="s">
@@ -3466,7 +3501,7 @@
         <v>330</v>
       </c>
       <c r="K19" s="34">
-        <f>J19-I19</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L19" s="34" t="s">
@@ -3494,8 +3529,8 @@
       <c r="V19" s="33">
         <v>0</v>
       </c>
-      <c r="W19" s="57">
-        <f t="shared" si="0"/>
+      <c r="W19" s="49">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -3512,7 +3547,7 @@
       <c r="E20" s="35">
         <v>44991</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="46" t="s">
         <v>350</v>
       </c>
       <c r="G20" s="32" t="s">
@@ -3528,7 +3563,7 @@
         <v>221786</v>
       </c>
       <c r="K20" s="34">
-        <f>J20-I20</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="L20" s="34" t="s">
@@ -3556,8 +3591,8 @@
       <c r="V20" s="33">
         <v>287</v>
       </c>
-      <c r="W20" s="57">
-        <f t="shared" si="0"/>
+      <c r="W20" s="49">
+        <f t="shared" si="1"/>
         <v>8977</v>
       </c>
     </row>
@@ -3574,7 +3609,7 @@
       <c r="E21" s="35">
         <v>44993</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="46" t="s">
         <v>351</v>
       </c>
       <c r="G21" s="32" t="s">
@@ -3590,7 +3625,7 @@
         <v>80678</v>
       </c>
       <c r="K21" s="34">
-        <f>J21-I21</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="L21" s="34" t="s">
@@ -3618,8 +3653,8 @@
       <c r="V21" s="33">
         <v>40</v>
       </c>
-      <c r="W21" s="57">
-        <f t="shared" si="0"/>
+      <c r="W21" s="49">
+        <f t="shared" si="1"/>
         <v>5460</v>
       </c>
     </row>
@@ -3636,7 +3671,7 @@
       <c r="E22" s="35">
         <v>44995</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="46" t="s">
         <v>352</v>
       </c>
       <c r="G22" s="32" t="s">
@@ -3652,7 +3687,7 @@
         <v>80776</v>
       </c>
       <c r="K22" s="34">
-        <f>J22-I22</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L22" s="34" t="s">
@@ -3680,8 +3715,8 @@
       <c r="V22" s="33">
         <v>0</v>
       </c>
-      <c r="W22" s="57">
-        <f t="shared" si="0"/>
+      <c r="W22" s="49">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -3698,7 +3733,7 @@
       <c r="E23" s="35">
         <v>44996</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="46" t="s">
         <v>353</v>
       </c>
       <c r="G23" s="32" t="s">
@@ -3714,7 +3749,7 @@
         <v>80941</v>
       </c>
       <c r="K23" s="34">
-        <f>J23-I23</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="L23" s="34" t="s">
@@ -3742,8 +3777,8 @@
       <c r="V23" s="33">
         <v>70</v>
       </c>
-      <c r="W23" s="57">
-        <f t="shared" si="0"/>
+      <c r="W23" s="49">
+        <f t="shared" si="1"/>
         <v>3820</v>
       </c>
     </row>
@@ -3760,7 +3795,7 @@
       <c r="E24" s="35">
         <v>44994</v>
       </c>
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="46" t="s">
         <v>354</v>
       </c>
       <c r="G24" s="32" t="s">
@@ -3776,7 +3811,7 @@
         <v>133320</v>
       </c>
       <c r="K24" s="34">
-        <f>J24-I24</f>
+        <f t="shared" si="0"/>
         <v>388</v>
       </c>
       <c r="L24" s="34" t="s">
@@ -3804,8 +3839,8 @@
       <c r="V24" s="33">
         <v>2920</v>
       </c>
-      <c r="W24" s="57">
-        <f t="shared" si="0"/>
+      <c r="W24" s="49">
+        <f t="shared" si="1"/>
         <v>12920</v>
       </c>
     </row>
@@ -3822,7 +3857,7 @@
       <c r="E25" s="35">
         <v>44994</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="46" t="s">
         <v>355</v>
       </c>
       <c r="G25" s="32" t="s">
@@ -3838,7 +3873,7 @@
         <v>177722</v>
       </c>
       <c r="K25" s="34">
-        <f>J25-I25</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="L25" s="34" t="s">
@@ -3870,8 +3905,8 @@
       <c r="V25" s="33">
         <v>0</v>
       </c>
-      <c r="W25" s="57">
-        <f t="shared" si="0"/>
+      <c r="W25" s="49">
+        <f t="shared" si="1"/>
         <v>2195</v>
       </c>
     </row>
@@ -3888,7 +3923,7 @@
       <c r="E26" s="35">
         <v>44995</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="46" t="s">
         <v>356</v>
       </c>
       <c r="G26" s="32" t="s">
@@ -3904,7 +3939,7 @@
         <v>177834</v>
       </c>
       <c r="K26" s="34">
-        <f>J26-I26</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="L26" s="34" t="s">
@@ -3936,8 +3971,8 @@
       <c r="V26" s="33">
         <v>0</v>
       </c>
-      <c r="W26" s="57">
-        <f t="shared" si="0"/>
+      <c r="W26" s="49">
+        <f t="shared" si="1"/>
         <v>2156</v>
       </c>
     </row>
@@ -3954,7 +3989,7 @@
       <c r="E27" s="35">
         <v>44996</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="46" t="s">
         <v>357</v>
       </c>
       <c r="G27" s="32" t="s">
@@ -3970,7 +4005,7 @@
         <v>46129</v>
       </c>
       <c r="K27" s="34">
-        <f>J27-I27</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="L27" s="34" t="s">
@@ -3998,8 +4033,8 @@
       <c r="V27" s="33">
         <v>0</v>
       </c>
-      <c r="W27" s="57">
-        <f t="shared" si="0"/>
+      <c r="W27" s="49">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -4016,7 +4051,7 @@
       <c r="E28" s="35">
         <v>45000</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="46" t="s">
         <v>358</v>
       </c>
       <c r="G28" s="32" t="s">
@@ -4032,7 +4067,7 @@
         <v>100312</v>
       </c>
       <c r="K28" s="34">
-        <f>J28-I28</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="L28" s="34" t="s">
@@ -4060,8 +4095,8 @@
       <c r="V28" s="33">
         <v>0</v>
       </c>
-      <c r="W28" s="57">
-        <f t="shared" si="0"/>
+      <c r="W28" s="49">
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
     </row>
@@ -4078,7 +4113,7 @@
       <c r="E29" s="35">
         <v>45001</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="46" t="s">
         <v>359</v>
       </c>
       <c r="G29" s="32" t="s">
@@ -4094,7 +4129,7 @@
         <v>100430</v>
       </c>
       <c r="K29" s="34">
-        <f>J29-I29</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="L29" s="34" t="s">
@@ -4126,8 +4161,8 @@
       <c r="V29" s="33">
         <v>0</v>
       </c>
-      <c r="W29" s="57">
-        <f t="shared" si="0"/>
+      <c r="W29" s="49">
+        <f t="shared" si="1"/>
         <v>5040</v>
       </c>
     </row>
@@ -4144,7 +4179,7 @@
       <c r="E30" s="35">
         <v>45002</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="46" t="s">
         <v>360</v>
       </c>
       <c r="G30" s="32" t="s">
@@ -4160,7 +4195,7 @@
         <v>100576</v>
       </c>
       <c r="K30" s="34">
-        <f>J30-I30</f>
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="L30" s="34" t="s">
@@ -4192,8 +4227,8 @@
       <c r="V30" s="33">
         <v>0</v>
       </c>
-      <c r="W30" s="57">
-        <f t="shared" si="0"/>
+      <c r="W30" s="49">
+        <f t="shared" si="1"/>
         <v>5040</v>
       </c>
     </row>
@@ -4210,7 +4245,7 @@
       <c r="E31" s="35">
         <v>45003</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="46" t="s">
         <v>361</v>
       </c>
       <c r="G31" s="32" t="s">
@@ -4226,7 +4261,7 @@
         <v>100615</v>
       </c>
       <c r="K31" s="34">
-        <f>J31-I31</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="L31" s="36">
@@ -4258,8 +4293,8 @@
       <c r="V31" s="33">
         <v>0</v>
       </c>
-      <c r="W31" s="57">
-        <f t="shared" si="0"/>
+      <c r="W31" s="49">
+        <f t="shared" si="1"/>
         <v>3640</v>
       </c>
     </row>
@@ -4276,7 +4311,7 @@
       <c r="E32" s="35">
         <v>45004</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="46" t="s">
         <v>362</v>
       </c>
       <c r="G32" s="32" t="s">
@@ -4292,7 +4327,7 @@
         <v>166750</v>
       </c>
       <c r="K32" s="34">
-        <f>J32-I32</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
       <c r="L32" s="34" t="s">
@@ -4320,8 +4355,8 @@
       <c r="V32" s="33">
         <v>0</v>
       </c>
-      <c r="W32" s="57">
-        <f t="shared" si="0"/>
+      <c r="W32" s="49">
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
@@ -4338,7 +4373,7 @@
       <c r="E33" s="35">
         <v>45002</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="46" t="s">
         <v>363</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -4354,7 +4389,7 @@
         <v>55918</v>
       </c>
       <c r="K33" s="34">
-        <f>J33-I33</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="L33" s="34" t="s">
@@ -4386,8 +4421,8 @@
       <c r="V33" s="33">
         <v>0</v>
       </c>
-      <c r="W33" s="57">
-        <f t="shared" si="0"/>
+      <c r="W33" s="49">
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
     </row>
@@ -4404,7 +4439,7 @@
       <c r="E34" s="35">
         <v>45002</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="46" t="s">
         <v>364</v>
       </c>
       <c r="G34" s="32" t="s">
@@ -4420,7 +4455,7 @@
         <v>357354</v>
       </c>
       <c r="K34" s="34">
-        <f>J34-I34</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="L34" s="34" t="s">
@@ -4448,8 +4483,8 @@
       <c r="V34" s="33">
         <v>770</v>
       </c>
-      <c r="W34" s="57">
-        <f t="shared" si="0"/>
+      <c r="W34" s="49">
+        <f t="shared" si="1"/>
         <v>7030</v>
       </c>
     </row>
@@ -4466,7 +4501,7 @@
       <c r="E35" s="35">
         <v>45007</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="46" t="s">
         <v>365</v>
       </c>
       <c r="G35" s="32" t="s">
@@ -4482,7 +4517,7 @@
         <v>101503</v>
       </c>
       <c r="K35" s="34">
-        <f>J35-I35</f>
+        <f t="shared" si="0"/>
         <v>598</v>
       </c>
       <c r="L35" s="36">
@@ -4510,8 +4545,8 @@
       <c r="V35" s="33">
         <v>325</v>
       </c>
-      <c r="W35" s="57">
-        <f t="shared" si="0"/>
+      <c r="W35" s="49">
+        <f t="shared" si="1"/>
         <v>13825</v>
       </c>
     </row>
@@ -4528,7 +4563,7 @@
       <c r="E36" s="35">
         <v>44998</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="46" t="s">
         <v>366</v>
       </c>
       <c r="G36" s="32" t="s">
@@ -4544,7 +4579,7 @@
         <v>1363</v>
       </c>
       <c r="K36" s="34">
-        <f>J36-I36</f>
+        <f t="shared" si="0"/>
         <v>731</v>
       </c>
       <c r="L36" s="36">
@@ -4572,8 +4607,8 @@
       <c r="V36" s="33">
         <v>341</v>
       </c>
-      <c r="W36" s="57">
-        <f t="shared" si="0"/>
+      <c r="W36" s="49">
+        <f t="shared" si="1"/>
         <v>10344</v>
       </c>
     </row>
@@ -4590,7 +4625,7 @@
       <c r="E37" s="35">
         <v>45011</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="46" t="s">
         <v>543</v>
       </c>
       <c r="G37" s="32" t="s">
@@ -4606,7 +4641,7 @@
         <v>129790</v>
       </c>
       <c r="K37" s="34">
-        <f>J37-I37</f>
+        <f t="shared" si="0"/>
         <v>346</v>
       </c>
       <c r="L37" s="34" t="s">
@@ -4634,8 +4669,8 @@
       <c r="V37" s="33">
         <v>1420</v>
       </c>
-      <c r="W37" s="57">
-        <f t="shared" si="0"/>
+      <c r="W37" s="49">
+        <f t="shared" si="1"/>
         <v>11420</v>
       </c>
     </row>
@@ -4652,7 +4687,7 @@
       <c r="E38" s="35">
         <v>45012</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="46" t="s">
         <v>544</v>
       </c>
       <c r="G38" s="32" t="s">
@@ -4668,7 +4703,7 @@
         <v>252796</v>
       </c>
       <c r="K38" s="34">
-        <f>J38-I38</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L38" s="34" t="s">
@@ -4700,8 +4735,8 @@
       <c r="V38" s="33">
         <v>0</v>
       </c>
-      <c r="W38" s="57">
-        <f t="shared" si="0"/>
+      <c r="W38" s="49">
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
     </row>
@@ -4718,7 +4753,7 @@
       <c r="E39" s="35">
         <v>45015</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="46" t="s">
         <v>545</v>
       </c>
       <c r="G39" s="32" t="s">
@@ -4734,7 +4769,7 @@
         <v>253228</v>
       </c>
       <c r="K39" s="34">
-        <f>J39-I39</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L39" s="34" t="s">
@@ -4762,8 +4797,8 @@
       <c r="V39" s="33">
         <v>40</v>
       </c>
-      <c r="W39" s="57">
-        <f t="shared" si="0"/>
+      <c r="W39" s="49">
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
     </row>
@@ -4780,7 +4815,7 @@
       <c r="E40" s="35">
         <v>45016</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="46" t="s">
         <v>546</v>
       </c>
       <c r="G40" s="32" t="s">
@@ -4796,7 +4831,7 @@
         <v>79328</v>
       </c>
       <c r="K40" s="34">
-        <f>J40-I40</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="L40" s="34" t="s">
@@ -4828,8 +4863,8 @@
       <c r="V40" s="33">
         <v>0</v>
       </c>
-      <c r="W40" s="57">
-        <f t="shared" si="0"/>
+      <c r="W40" s="49">
+        <f t="shared" si="1"/>
         <v>4480</v>
       </c>
     </row>
@@ -4846,7 +4881,7 @@
       <c r="E41" s="35">
         <v>45017</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="46" t="s">
         <v>547</v>
       </c>
       <c r="G41" s="32" t="s">
@@ -4862,7 +4897,7 @@
         <v>144398</v>
       </c>
       <c r="K41" s="34">
-        <f>J41-I41</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="L41" s="34" t="s">
@@ -4890,8 +4925,8 @@
       <c r="V41" s="33">
         <v>0</v>
       </c>
-      <c r="W41" s="57">
-        <f t="shared" si="0"/>
+      <c r="W41" s="49">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -4908,7 +4943,7 @@
       <c r="E42" s="30">
         <v>44999</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="47">
         <v>6530</v>
       </c>
       <c r="G42" s="17" t="s">
@@ -4924,7 +4959,7 @@
         <v>4759</v>
       </c>
       <c r="K42" s="22">
-        <f>J42-I42</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L42" s="23" t="s">
@@ -4956,8 +4991,8 @@
       <c r="V42" s="16">
         <v>40</v>
       </c>
-      <c r="W42" s="57">
-        <f t="shared" ref="W42:W67" si="1">SUM(T42:V42)</f>
+      <c r="W42" s="49">
+        <f t="shared" ref="W42:W67" si="2">SUM(T42:V42)</f>
         <v>3440</v>
       </c>
     </row>
@@ -4974,7 +5009,7 @@
       <c r="E43" s="30">
         <v>45000</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="47" t="s">
         <v>312</v>
       </c>
       <c r="G43" s="17" t="s">
@@ -4990,7 +5025,7 @@
         <v>133306</v>
       </c>
       <c r="K43" s="22">
-        <f>J43-I43</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L43" s="23" t="s">
@@ -5018,8 +5053,8 @@
       <c r="V43" s="16">
         <v>0</v>
       </c>
-      <c r="W43" s="57">
-        <f t="shared" si="1"/>
+      <c r="W43" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5036,7 +5071,7 @@
       <c r="E44" s="30">
         <v>44998</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="47" t="s">
         <v>313</v>
       </c>
       <c r="G44" s="17" t="s">
@@ -5052,7 +5087,7 @@
         <v>251877</v>
       </c>
       <c r="K44" s="22">
-        <f>J44-I44</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L44" s="23" t="s">
@@ -5080,8 +5115,8 @@
       <c r="V44" s="16">
         <v>0</v>
       </c>
-      <c r="W44" s="57">
-        <f t="shared" si="1"/>
+      <c r="W44" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5098,7 +5133,7 @@
       <c r="E45" s="30">
         <v>44999</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="47" t="s">
         <v>314</v>
       </c>
       <c r="G45" s="17" t="s">
@@ -5114,7 +5149,7 @@
         <v>9760</v>
       </c>
       <c r="K45" s="22">
-        <f>J45-I45</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="L45" s="23" t="s">
@@ -5146,8 +5181,8 @@
       <c r="V45" s="16">
         <v>0</v>
       </c>
-      <c r="W45" s="57">
-        <f t="shared" si="1"/>
+      <c r="W45" s="49">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
     </row>
@@ -5164,7 +5199,7 @@
       <c r="E46" s="30">
         <v>44998</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="47" t="s">
         <v>316</v>
       </c>
       <c r="G46" s="17" t="s">
@@ -5180,7 +5215,7 @@
         <v>251913</v>
       </c>
       <c r="K46" s="22">
-        <f>J46-I46</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L46" s="23" t="s">
@@ -5208,8 +5243,8 @@
       <c r="V46" s="16">
         <v>0</v>
       </c>
-      <c r="W46" s="57">
-        <f t="shared" si="1"/>
+      <c r="W46" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5226,7 +5261,7 @@
       <c r="E47" s="30">
         <v>45000</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="47" t="s">
         <v>317</v>
       </c>
       <c r="G47" s="17" t="s">
@@ -5242,7 +5277,7 @@
         <v>204681</v>
       </c>
       <c r="K47" s="22">
-        <f>J47-I47</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L47" s="23" t="s">
@@ -5270,8 +5305,8 @@
       <c r="V47" s="16">
         <v>0</v>
       </c>
-      <c r="W47" s="57">
-        <f t="shared" si="1"/>
+      <c r="W47" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5288,7 +5323,7 @@
       <c r="E48" s="30">
         <v>45000</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="47" t="s">
         <v>315</v>
       </c>
       <c r="G48" s="17" t="s">
@@ -5304,7 +5339,7 @@
         <v>204718</v>
       </c>
       <c r="K48" s="22">
-        <f>J48-I48</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L48" s="23" t="s">
@@ -5332,8 +5367,8 @@
       <c r="V48" s="16">
         <v>0</v>
       </c>
-      <c r="W48" s="57">
-        <f t="shared" si="1"/>
+      <c r="W48" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5350,7 +5385,7 @@
       <c r="E49" s="30">
         <v>44998</v>
       </c>
-      <c r="F49" s="55" t="s">
+      <c r="F49" s="47" t="s">
         <v>318</v>
       </c>
       <c r="G49" s="17" t="s">
@@ -5366,7 +5401,7 @@
         <v>3696</v>
       </c>
       <c r="K49" s="22">
-        <f>J49-I49</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L49" s="23" t="s">
@@ -5394,8 +5429,8 @@
       <c r="V49" s="16">
         <v>0</v>
       </c>
-      <c r="W49" s="57">
-        <f t="shared" si="1"/>
+      <c r="W49" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5412,7 +5447,7 @@
       <c r="E50" s="30">
         <v>44998</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="47" t="s">
         <v>319</v>
       </c>
       <c r="G50" s="17" t="s">
@@ -5428,7 +5463,7 @@
         <v>171006</v>
       </c>
       <c r="K50" s="22">
-        <f>J50-I50</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L50" s="23" t="s">
@@ -5456,8 +5491,8 @@
       <c r="V50" s="16">
         <v>40</v>
       </c>
-      <c r="W50" s="57">
-        <f t="shared" si="1"/>
+      <c r="W50" s="49">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
     </row>
@@ -5474,7 +5509,7 @@
       <c r="E51" s="30">
         <v>45000</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="47" t="s">
         <v>320</v>
       </c>
       <c r="G51" s="17" t="s">
@@ -5490,7 +5525,7 @@
         <v>142553</v>
       </c>
       <c r="K51" s="22">
-        <f>J51-I51</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L51" s="23" t="s">
@@ -5518,8 +5553,8 @@
       <c r="V51" s="16">
         <v>0</v>
       </c>
-      <c r="W51" s="57">
-        <f t="shared" si="1"/>
+      <c r="W51" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5536,7 +5571,7 @@
       <c r="E52" s="30">
         <v>45000</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="47" t="s">
         <v>321</v>
       </c>
       <c r="G52" s="17" t="s">
@@ -5552,7 +5587,7 @@
         <v>110499</v>
       </c>
       <c r="K52" s="22">
-        <f>J52-I52</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L52" s="23" t="s">
@@ -5580,8 +5615,8 @@
       <c r="V52" s="16">
         <v>0</v>
       </c>
-      <c r="W52" s="57">
-        <f t="shared" si="1"/>
+      <c r="W52" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5598,7 +5633,7 @@
       <c r="E53" s="30">
         <v>45000</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="47" t="s">
         <v>322</v>
       </c>
       <c r="G53" s="17" t="s">
@@ -5614,7 +5649,7 @@
         <v>143639</v>
       </c>
       <c r="K53" s="22">
-        <f>J53-I53</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L53" s="23" t="s">
@@ -5642,8 +5677,8 @@
       <c r="V53" s="16">
         <v>0</v>
       </c>
-      <c r="W53" s="57">
-        <f t="shared" si="1"/>
+      <c r="W53" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5660,7 +5695,7 @@
       <c r="E54" s="30">
         <v>44998</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="F54" s="47" t="s">
         <v>323</v>
       </c>
       <c r="G54" s="17" t="s">
@@ -5676,7 +5711,7 @@
         <v>6253</v>
       </c>
       <c r="K54" s="22">
-        <f>J54-I54</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L54" s="23" t="s">
@@ -5704,8 +5739,8 @@
       <c r="V54" s="16">
         <v>0</v>
       </c>
-      <c r="W54" s="57">
-        <f t="shared" si="1"/>
+      <c r="W54" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5722,7 +5757,7 @@
       <c r="E55" s="30">
         <v>44999</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="47" t="s">
         <v>324</v>
       </c>
       <c r="G55" s="17" t="s">
@@ -5738,7 +5773,7 @@
         <v>298899</v>
       </c>
       <c r="K55" s="22">
-        <f>J55-I55</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L55" s="23" t="s">
@@ -5770,8 +5805,8 @@
       <c r="V55" s="16">
         <v>0</v>
       </c>
-      <c r="W55" s="57">
-        <f t="shared" si="1"/>
+      <c r="W55" s="49">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
     </row>
@@ -5788,7 +5823,7 @@
       <c r="E56" s="30">
         <v>44998</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="47" t="s">
         <v>325</v>
       </c>
       <c r="G56" s="17" t="s">
@@ -5804,7 +5839,7 @@
         <v>146543</v>
       </c>
       <c r="K56" s="22">
-        <f>J56-I56</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L56" s="23" t="s">
@@ -5832,8 +5867,8 @@
       <c r="V56" s="16">
         <v>0</v>
       </c>
-      <c r="W56" s="57">
-        <f t="shared" si="1"/>
+      <c r="W56" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -5850,7 +5885,7 @@
       <c r="E57" s="30">
         <v>44999</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="47" t="s">
         <v>326</v>
       </c>
       <c r="G57" s="17" t="s">
@@ -5866,7 +5901,7 @@
         <v>89284</v>
       </c>
       <c r="K57" s="22">
-        <f>J57-I57</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="L57" s="23" t="s">
@@ -5898,8 +5933,8 @@
       <c r="V57" s="16">
         <v>0</v>
       </c>
-      <c r="W57" s="57">
-        <f t="shared" si="1"/>
+      <c r="W57" s="49">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
     </row>
@@ -5916,7 +5951,7 @@
       <c r="E58" s="30">
         <v>44998</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="47" t="s">
         <v>327</v>
       </c>
       <c r="G58" s="17" t="s">
@@ -5932,7 +5967,7 @@
         <v>3695</v>
       </c>
       <c r="K58" s="22">
-        <f>J58-I58</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L58" s="23" t="s">
@@ -5960,8 +5995,8 @@
       <c r="V58" s="16">
         <v>100</v>
       </c>
-      <c r="W58" s="57">
-        <f t="shared" si="1"/>
+      <c r="W58" s="49">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
     </row>
@@ -5978,7 +6013,7 @@
       <c r="E59" s="30">
         <v>44999</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="F59" s="47" t="s">
         <v>328</v>
       </c>
       <c r="G59" s="17" t="s">
@@ -5994,7 +6029,7 @@
         <v>196910</v>
       </c>
       <c r="K59" s="22">
-        <f>J59-I59</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L59" s="23" t="s">
@@ -6026,8 +6061,8 @@
       <c r="V59" s="16">
         <v>0</v>
       </c>
-      <c r="W59" s="57">
-        <f t="shared" si="1"/>
+      <c r="W59" s="49">
+        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
@@ -6044,7 +6079,7 @@
       <c r="E60" s="30">
         <v>44998</v>
       </c>
-      <c r="F60" s="55" t="s">
+      <c r="F60" s="47" t="s">
         <v>329</v>
       </c>
       <c r="G60" s="17" t="s">
@@ -6060,7 +6095,7 @@
         <v>3658</v>
       </c>
       <c r="K60" s="22">
-        <f>J60-I60</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L60" s="23" t="s">
@@ -6088,8 +6123,8 @@
       <c r="V60" s="16">
         <v>40</v>
       </c>
-      <c r="W60" s="57">
-        <f t="shared" si="1"/>
+      <c r="W60" s="49">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
     </row>
@@ -6106,7 +6141,7 @@
       <c r="E61" s="30">
         <v>45000</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="47" t="s">
         <v>330</v>
       </c>
       <c r="G61" s="17" t="s">
@@ -6122,7 +6157,7 @@
         <v>717</v>
       </c>
       <c r="K61" s="22">
-        <f>J61-I61</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="L61" s="23" t="s">
@@ -6150,8 +6185,8 @@
       <c r="V61" s="16">
         <v>40</v>
       </c>
-      <c r="W61" s="57">
-        <f t="shared" si="1"/>
+      <c r="W61" s="49">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
     </row>
@@ -6168,7 +6203,7 @@
       <c r="E62" s="30">
         <v>44998</v>
       </c>
-      <c r="F62" s="55" t="s">
+      <c r="F62" s="47" t="s">
         <v>331</v>
       </c>
       <c r="G62" s="17" t="s">
@@ -6184,7 +6219,7 @@
         <v>3620</v>
       </c>
       <c r="K62" s="22">
-        <f>J62-I62</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="L62" s="23" t="s">
@@ -6212,8 +6247,8 @@
       <c r="V62" s="16">
         <v>40</v>
       </c>
-      <c r="W62" s="57">
-        <f t="shared" si="1"/>
+      <c r="W62" s="49">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
       <c r="Y62" s="3"/>
@@ -6231,7 +6266,7 @@
       <c r="E63" s="30">
         <v>44999</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="47" t="s">
         <v>332</v>
       </c>
       <c r="G63" s="17" t="s">
@@ -6247,7 +6282,7 @@
         <v>260556</v>
       </c>
       <c r="K63" s="22">
-        <f>J63-I63</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="L63" s="23" t="s">
@@ -6279,8 +6314,8 @@
       <c r="V63" s="16">
         <v>0</v>
       </c>
-      <c r="W63" s="57">
-        <f t="shared" si="1"/>
+      <c r="W63" s="49">
+        <f t="shared" si="2"/>
         <v>5320</v>
       </c>
     </row>
@@ -6297,7 +6332,7 @@
       <c r="E64" s="30">
         <v>45000</v>
       </c>
-      <c r="F64" s="55" t="s">
+      <c r="F64" s="47" t="s">
         <v>333</v>
       </c>
       <c r="G64" s="17" t="s">
@@ -6313,7 +6348,7 @@
         <v>150496</v>
       </c>
       <c r="K64" s="22">
-        <f>J64-I64</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="L64" s="23" t="s">
@@ -6341,8 +6376,8 @@
       <c r="V64" s="16">
         <v>0</v>
       </c>
-      <c r="W64" s="57">
-        <f t="shared" si="1"/>
+      <c r="W64" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -6359,7 +6394,7 @@
       <c r="E65" s="30">
         <v>45000</v>
       </c>
-      <c r="F65" s="55" t="s">
+      <c r="F65" s="47" t="s">
         <v>334</v>
       </c>
       <c r="G65" s="17" t="s">
@@ -6375,7 +6410,7 @@
         <v>184637</v>
       </c>
       <c r="K65" s="22">
-        <f>J65-I65</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L65" s="23" t="s">
@@ -6403,8 +6438,8 @@
       <c r="V65" s="16">
         <v>0</v>
       </c>
-      <c r="W65" s="57">
-        <f t="shared" si="1"/>
+      <c r="W65" s="49">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
     </row>
@@ -6421,7 +6456,7 @@
       <c r="E66" s="30">
         <v>44998</v>
       </c>
-      <c r="F66" s="55" t="s">
+      <c r="F66" s="47" t="s">
         <v>335</v>
       </c>
       <c r="G66" s="17" t="s">
@@ -6437,7 +6472,7 @@
         <v>500</v>
       </c>
       <c r="K66" s="22">
-        <f>J66-I66</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="L66" s="23" t="s">
@@ -6465,8 +6500,8 @@
       <c r="V66" s="16">
         <v>40</v>
       </c>
-      <c r="W66" s="57">
-        <f t="shared" si="1"/>
+      <c r="W66" s="49">
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
     </row>
@@ -6483,7 +6518,7 @@
       <c r="E67" s="30">
         <v>44999</v>
       </c>
-      <c r="F67" s="55" t="s">
+      <c r="F67" s="47" t="s">
         <v>367</v>
       </c>
       <c r="G67" s="17" t="s">
@@ -6499,7 +6534,7 @@
         <v>7053</v>
       </c>
       <c r="K67" s="22">
-        <f>J67-I67</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="L67" s="23">
@@ -6527,8 +6562,8 @@
       <c r="V67" s="16">
         <v>75</v>
       </c>
-      <c r="W67" s="57">
-        <f t="shared" si="1"/>
+      <c r="W67" s="49">
+        <f t="shared" si="2"/>
         <v>1075</v>
       </c>
     </row>
@@ -6545,7 +6580,7 @@
       <c r="E68" s="30">
         <v>45000</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="47" t="s">
         <v>368</v>
       </c>
       <c r="G68" s="17" t="s">
@@ -6561,7 +6596,7 @@
         <v>115165</v>
       </c>
       <c r="K68" s="22">
-        <f>J68-I68</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L68" s="23">
@@ -6593,8 +6628,8 @@
       <c r="V68" s="16">
         <v>0</v>
       </c>
-      <c r="W68" s="57">
-        <f t="shared" ref="W68:W135" si="2">SUM(T68:V68)</f>
+      <c r="W68" s="49">
+        <f t="shared" ref="W68:W135" si="3">SUM(T68:V68)</f>
         <v>3200</v>
       </c>
     </row>
@@ -6611,7 +6646,7 @@
       <c r="E69" s="30">
         <v>45001</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="47" t="s">
         <v>369</v>
       </c>
       <c r="G69" s="17" t="s">
@@ -6627,7 +6662,7 @@
         <v>115227</v>
       </c>
       <c r="K69" s="22">
-        <f>J69-I69</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="L69" s="23">
@@ -6659,8 +6694,8 @@
       <c r="V69" s="16">
         <v>0</v>
       </c>
-      <c r="W69" s="57">
-        <f t="shared" si="2"/>
+      <c r="W69" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -6677,7 +6712,7 @@
       <c r="E70" s="30">
         <v>45002</v>
       </c>
-      <c r="F70" s="55" t="s">
+      <c r="F70" s="47" t="s">
         <v>370</v>
       </c>
       <c r="G70" s="17" t="s">
@@ -6693,7 +6728,7 @@
         <v>115400</v>
       </c>
       <c r="K70" s="22">
-        <f>J70-I70</f>
+        <f t="shared" ref="K70:K133" si="4">J70-I70</f>
         <v>173</v>
       </c>
       <c r="L70" s="23">
@@ -6721,8 +6756,8 @@
       <c r="V70" s="16">
         <v>145</v>
       </c>
-      <c r="W70" s="57">
-        <f t="shared" si="2"/>
+      <c r="W70" s="49">
+        <f t="shared" si="3"/>
         <v>3895</v>
       </c>
     </row>
@@ -6739,7 +6774,7 @@
       <c r="E71" s="30">
         <v>45003</v>
       </c>
-      <c r="F71" s="55" t="s">
+      <c r="F71" s="47" t="s">
         <v>371</v>
       </c>
       <c r="G71" s="17" t="s">
@@ -6755,7 +6790,7 @@
         <v>115442</v>
       </c>
       <c r="K71" s="22">
-        <f>J71-I71</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L71" s="23">
@@ -6783,8 +6818,8 @@
       <c r="V71" s="16">
         <v>0</v>
       </c>
-      <c r="W71" s="57">
-        <f t="shared" si="2"/>
+      <c r="W71" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -6801,7 +6836,7 @@
       <c r="E72" s="30">
         <v>44999</v>
       </c>
-      <c r="F72" s="55" t="s">
+      <c r="F72" s="47" t="s">
         <v>372</v>
       </c>
       <c r="G72" s="17" t="s">
@@ -6817,7 +6852,7 @@
         <v>4152</v>
       </c>
       <c r="K72" s="22">
-        <f>J72-I72</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L72" s="23">
@@ -6845,8 +6880,8 @@
       <c r="V72" s="16">
         <v>0</v>
       </c>
-      <c r="W72" s="57">
-        <f t="shared" si="2"/>
+      <c r="W72" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -6863,7 +6898,7 @@
       <c r="E73" s="30">
         <v>45000</v>
       </c>
-      <c r="F73" s="55" t="s">
+      <c r="F73" s="47" t="s">
         <v>373</v>
       </c>
       <c r="G73" s="17" t="s">
@@ -6879,7 +6914,7 @@
         <v>165132</v>
       </c>
       <c r="K73" s="22">
-        <f>J73-I73</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="L73" s="23">
@@ -6911,8 +6946,8 @@
       <c r="V73" s="16">
         <v>0</v>
       </c>
-      <c r="W73" s="57">
-        <f t="shared" si="2"/>
+      <c r="W73" s="49">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
@@ -6929,7 +6964,7 @@
       <c r="E74" s="30">
         <v>45001</v>
       </c>
-      <c r="F74" s="55" t="s">
+      <c r="F74" s="47" t="s">
         <v>374</v>
       </c>
       <c r="G74" s="17" t="s">
@@ -6945,7 +6980,7 @@
         <v>165200</v>
       </c>
       <c r="K74" s="22">
-        <f>J74-I74</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="L74" s="23">
@@ -6977,8 +7012,8 @@
       <c r="V74" s="16">
         <v>0</v>
       </c>
-      <c r="W74" s="57">
-        <f t="shared" si="2"/>
+      <c r="W74" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -6995,7 +7030,7 @@
       <c r="E75" s="30">
         <v>45002</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="47" t="s">
         <v>375</v>
       </c>
       <c r="G75" s="17" t="s">
@@ -7011,7 +7046,7 @@
         <v>165275</v>
       </c>
       <c r="K75" s="22">
-        <f>J75-I75</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L75" s="23">
@@ -7043,8 +7078,8 @@
       <c r="V75" s="16">
         <v>0</v>
       </c>
-      <c r="W75" s="57">
-        <f t="shared" si="2"/>
+      <c r="W75" s="49">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -7061,7 +7096,7 @@
       <c r="E76" s="30">
         <v>45003</v>
       </c>
-      <c r="F76" s="55" t="s">
+      <c r="F76" s="47" t="s">
         <v>376</v>
       </c>
       <c r="G76" s="17" t="s">
@@ -7077,7 +7112,7 @@
         <v>165317</v>
       </c>
       <c r="K76" s="22">
-        <f>J76-I76</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L76" s="23">
@@ -7105,8 +7140,8 @@
       <c r="V76" s="16">
         <v>0</v>
       </c>
-      <c r="W76" s="57">
-        <f t="shared" si="2"/>
+      <c r="W76" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -7123,7 +7158,7 @@
       <c r="E77" s="30">
         <v>44999</v>
       </c>
-      <c r="F77" s="55" t="s">
+      <c r="F77" s="47" t="s">
         <v>377</v>
       </c>
       <c r="G77" s="17" t="s">
@@ -7139,7 +7174,7 @@
         <v>22553</v>
       </c>
       <c r="K77" s="22">
-        <f>J77-I77</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L77" s="23">
@@ -7167,8 +7202,8 @@
       <c r="V77" s="16">
         <v>40</v>
       </c>
-      <c r="W77" s="57">
-        <f t="shared" si="2"/>
+      <c r="W77" s="49">
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
@@ -7185,7 +7220,7 @@
       <c r="E78" s="30">
         <v>45000</v>
       </c>
-      <c r="F78" s="55" t="s">
+      <c r="F78" s="47" t="s">
         <v>378</v>
       </c>
       <c r="G78" s="17" t="s">
@@ -7201,7 +7236,7 @@
         <v>181228</v>
       </c>
       <c r="K78" s="22">
-        <f>J78-I78</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="L78" s="23">
@@ -7233,8 +7268,8 @@
       <c r="V78" s="16">
         <v>0</v>
       </c>
-      <c r="W78" s="57">
-        <f t="shared" si="2"/>
+      <c r="W78" s="49">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
@@ -7251,7 +7286,7 @@
       <c r="E79" s="30">
         <v>45001</v>
       </c>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="47" t="s">
         <v>379</v>
       </c>
       <c r="G79" s="17" t="s">
@@ -7267,7 +7302,7 @@
         <v>181334</v>
       </c>
       <c r="K79" s="22">
-        <f>J79-I79</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="L79" s="23">
@@ -7299,8 +7334,8 @@
       <c r="V79" s="16">
         <v>40</v>
       </c>
-      <c r="W79" s="57">
-        <f t="shared" si="2"/>
+      <c r="W79" s="49">
+        <f t="shared" si="3"/>
         <v>3840</v>
       </c>
     </row>
@@ -7317,7 +7352,7 @@
       <c r="E80" s="30">
         <v>45002</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="47" t="s">
         <v>380</v>
       </c>
       <c r="G80" s="17" t="s">
@@ -7333,7 +7368,7 @@
         <v>181427</v>
       </c>
       <c r="K80" s="22">
-        <f>J80-I80</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="L80" s="23">
@@ -7365,8 +7400,8 @@
       <c r="V80" s="16">
         <v>0</v>
       </c>
-      <c r="W80" s="57">
-        <f t="shared" si="2"/>
+      <c r="W80" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -7383,7 +7418,7 @@
       <c r="E81" s="30">
         <v>45003</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="47" t="s">
         <v>381</v>
       </c>
       <c r="G81" s="17" t="s">
@@ -7399,7 +7434,7 @@
         <v>181468</v>
       </c>
       <c r="K81" s="22">
-        <f>J81-I81</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L81" s="23">
@@ -7427,8 +7462,8 @@
       <c r="V81" s="16">
         <v>0</v>
       </c>
-      <c r="W81" s="57">
-        <f t="shared" si="2"/>
+      <c r="W81" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -7445,7 +7480,7 @@
       <c r="E82" s="30">
         <v>44999</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F82" s="47" t="s">
         <v>382</v>
       </c>
       <c r="G82" s="17" t="s">
@@ -7461,7 +7496,7 @@
         <v>23244</v>
       </c>
       <c r="K82" s="22">
-        <f>J82-I82</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L82" s="23">
@@ -7489,8 +7524,8 @@
       <c r="V82" s="16">
         <v>40</v>
       </c>
-      <c r="W82" s="57">
-        <f t="shared" si="2"/>
+      <c r="W82" s="49">
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
@@ -7507,7 +7542,7 @@
       <c r="E83" s="30">
         <v>45000</v>
       </c>
-      <c r="F83" s="55" t="s">
+      <c r="F83" s="47" t="s">
         <v>383</v>
       </c>
       <c r="G83" s="17" t="s">
@@ -7523,7 +7558,7 @@
         <v>23360</v>
       </c>
       <c r="K83" s="22">
-        <f>J83-I83</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="L83" s="23">
@@ -7555,8 +7590,8 @@
       <c r="V83" s="16">
         <v>0</v>
       </c>
-      <c r="W83" s="57">
-        <f t="shared" si="2"/>
+      <c r="W83" s="49">
+        <f t="shared" si="3"/>
         <v>4200</v>
       </c>
     </row>
@@ -7573,7 +7608,7 @@
       <c r="E84" s="30">
         <v>45001</v>
       </c>
-      <c r="F84" s="55" t="s">
+      <c r="F84" s="47" t="s">
         <v>384</v>
       </c>
       <c r="G84" s="17" t="s">
@@ -7589,7 +7624,7 @@
         <v>23412</v>
       </c>
       <c r="K84" s="22">
-        <f>J84-I84</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="L84" s="23">
@@ -7617,8 +7652,8 @@
       <c r="V84" s="16">
         <v>0</v>
       </c>
-      <c r="W84" s="57">
-        <f t="shared" si="2"/>
+      <c r="W84" s="49">
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
@@ -7635,7 +7670,7 @@
       <c r="E85" s="30">
         <v>45001</v>
       </c>
-      <c r="F85" s="55" t="s">
+      <c r="F85" s="47" t="s">
         <v>385</v>
       </c>
       <c r="G85" s="17" t="s">
@@ -7651,7 +7686,7 @@
         <v>23567</v>
       </c>
       <c r="K85" s="22">
-        <f>J85-I85</f>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="L85" s="23">
@@ -7678,8 +7713,8 @@
       <c r="V85" s="16">
         <v>50</v>
       </c>
-      <c r="W85" s="57">
-        <f t="shared" si="2"/>
+      <c r="W85" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -7696,7 +7731,7 @@
       <c r="E86" s="30">
         <v>45002</v>
       </c>
-      <c r="F86" s="55" t="s">
+      <c r="F86" s="47" t="s">
         <v>386</v>
       </c>
       <c r="G86" s="17" t="s">
@@ -7712,7 +7747,7 @@
         <v>23928</v>
       </c>
       <c r="K86" s="22">
-        <f>J86-I86</f>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="L86" s="23">
@@ -7740,8 +7775,8 @@
       <c r="V86" s="16">
         <v>400</v>
       </c>
-      <c r="W86" s="57">
-        <f t="shared" si="2"/>
+      <c r="W86" s="49">
+        <f t="shared" si="3"/>
         <v>5593</v>
       </c>
     </row>
@@ -7758,7 +7793,7 @@
       <c r="E87" s="30">
         <v>45003</v>
       </c>
-      <c r="F87" s="55" t="s">
+      <c r="F87" s="47" t="s">
         <v>387</v>
       </c>
       <c r="G87" s="17" t="s">
@@ -7774,7 +7809,7 @@
         <v>23969</v>
       </c>
       <c r="K87" s="22">
-        <f>J87-I87</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L87" s="23">
@@ -7802,8 +7837,8 @@
       <c r="V87" s="16">
         <v>0</v>
       </c>
-      <c r="W87" s="57">
-        <f t="shared" si="2"/>
+      <c r="W87" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -7820,7 +7855,7 @@
       <c r="E88" s="30">
         <v>44999</v>
       </c>
-      <c r="F88" s="55" t="s">
+      <c r="F88" s="47" t="s">
         <v>388</v>
       </c>
       <c r="G88" s="17" t="s">
@@ -7836,7 +7871,7 @@
         <v>107466</v>
       </c>
       <c r="K88" s="22">
-        <f>J88-I88</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L88" s="23">
@@ -7864,8 +7899,8 @@
       <c r="V88" s="16">
         <v>40</v>
       </c>
-      <c r="W88" s="57">
-        <f t="shared" si="2"/>
+      <c r="W88" s="49">
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
@@ -7882,7 +7917,7 @@
       <c r="E89" s="30">
         <v>45000</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="47" t="s">
         <v>389</v>
       </c>
       <c r="G89" s="17" t="s">
@@ -7898,7 +7933,7 @@
         <v>129520</v>
       </c>
       <c r="K89" s="22">
-        <f>J89-I89</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="L89" s="23">
@@ -7930,8 +7965,8 @@
       <c r="V89" s="16">
         <v>60</v>
       </c>
-      <c r="W89" s="57">
-        <f t="shared" si="2"/>
+      <c r="W89" s="49">
+        <f t="shared" si="3"/>
         <v>3860</v>
       </c>
     </row>
@@ -7948,7 +7983,7 @@
       <c r="E90" s="30">
         <v>45001</v>
       </c>
-      <c r="F90" s="55" t="s">
+      <c r="F90" s="47" t="s">
         <v>390</v>
       </c>
       <c r="G90" s="17" t="s">
@@ -7964,7 +7999,7 @@
         <v>216717</v>
       </c>
       <c r="K90" s="22">
-        <f>J90-I90</f>
+        <f t="shared" si="4"/>
         <v>352</v>
       </c>
       <c r="L90" s="23">
@@ -7992,8 +8027,8 @@
       <c r="V90" s="16">
         <v>790</v>
       </c>
-      <c r="W90" s="57">
-        <f t="shared" si="2"/>
+      <c r="W90" s="49">
+        <f t="shared" si="3"/>
         <v>5866</v>
       </c>
     </row>
@@ -8010,7 +8045,7 @@
       <c r="E91" s="30">
         <v>45002</v>
       </c>
-      <c r="F91" s="55" t="s">
+      <c r="F91" s="47" t="s">
         <v>391</v>
       </c>
       <c r="G91" s="17" t="s">
@@ -8026,7 +8061,7 @@
         <v>129693</v>
       </c>
       <c r="K91" s="22">
-        <f>J91-I91</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="L91" s="23">
@@ -8058,8 +8093,8 @@
       <c r="V91" s="16">
         <v>0</v>
       </c>
-      <c r="W91" s="57">
-        <f t="shared" si="2"/>
+      <c r="W91" s="49">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
@@ -8076,7 +8111,7 @@
       <c r="E92" s="30">
         <v>45003</v>
       </c>
-      <c r="F92" s="55" t="s">
+      <c r="F92" s="47" t="s">
         <v>392</v>
       </c>
       <c r="G92" s="17" t="s">
@@ -8092,7 +8127,7 @@
         <v>129773</v>
       </c>
       <c r="K92" s="22">
-        <f>J92-I92</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="L92" s="23">
@@ -8124,8 +8159,8 @@
       <c r="V92" s="16">
         <v>0</v>
       </c>
-      <c r="W92" s="57">
-        <f t="shared" si="2"/>
+      <c r="W92" s="49">
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
     </row>
@@ -8142,7 +8177,7 @@
       <c r="E93" s="30">
         <v>44999</v>
       </c>
-      <c r="F93" s="55" t="s">
+      <c r="F93" s="47" t="s">
         <v>393</v>
       </c>
       <c r="G93" s="17" t="s">
@@ -8158,7 +8193,7 @@
         <v>141</v>
       </c>
       <c r="K93" s="22">
-        <f>J93-I93</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L93" s="23">
@@ -8186,8 +8221,8 @@
       <c r="V93" s="16">
         <v>75</v>
       </c>
-      <c r="W93" s="57">
-        <f t="shared" si="2"/>
+      <c r="W93" s="49">
+        <f t="shared" si="3"/>
         <v>1075</v>
       </c>
     </row>
@@ -8204,7 +8239,7 @@
       <c r="E94" s="30">
         <v>45000</v>
       </c>
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="47" t="s">
         <v>394</v>
       </c>
       <c r="G94" s="17" t="s">
@@ -8220,7 +8255,7 @@
         <v>215888</v>
       </c>
       <c r="K94" s="22">
-        <f>J94-I94</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="L94" s="23">
@@ -8252,8 +8287,8 @@
       <c r="V94" s="16">
         <v>0</v>
       </c>
-      <c r="W94" s="57">
-        <f t="shared" si="2"/>
+      <c r="W94" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -8270,7 +8305,7 @@
       <c r="E95" s="30">
         <v>45001</v>
       </c>
-      <c r="F95" s="55" t="s">
+      <c r="F95" s="47" t="s">
         <v>395</v>
       </c>
       <c r="G95" s="17" t="s">
@@ -8286,7 +8321,7 @@
         <v>129598</v>
       </c>
       <c r="K95" s="22">
-        <f>J95-I95</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="L95" s="23">
@@ -8318,8 +8353,8 @@
       <c r="V95" s="16">
         <v>0</v>
       </c>
-      <c r="W95" s="57">
-        <f t="shared" si="2"/>
+      <c r="W95" s="49">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -8336,7 +8371,7 @@
       <c r="E96" s="30">
         <v>45002</v>
       </c>
-      <c r="F96" s="55" t="s">
+      <c r="F96" s="47" t="s">
         <v>396</v>
       </c>
       <c r="G96" s="17" t="s">
@@ -8352,7 +8387,7 @@
         <v>216825</v>
       </c>
       <c r="K96" s="22">
-        <f>J96-I96</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="L96" s="23">
@@ -8384,8 +8419,8 @@
       <c r="V96" s="16">
         <v>0</v>
       </c>
-      <c r="W96" s="57">
-        <f t="shared" si="2"/>
+      <c r="W96" s="49">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
@@ -8402,7 +8437,7 @@
       <c r="E97" s="30">
         <v>45003</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F97" s="47" t="s">
         <v>397</v>
       </c>
       <c r="G97" s="17" t="s">
@@ -8418,7 +8453,7 @@
         <v>216866</v>
       </c>
       <c r="K97" s="22">
-        <f>J97-I97</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L97" s="23">
@@ -8446,8 +8481,8 @@
       <c r="V97" s="16">
         <v>0</v>
       </c>
-      <c r="W97" s="57">
-        <f t="shared" si="2"/>
+      <c r="W97" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -8464,7 +8499,7 @@
       <c r="E98" s="30">
         <v>44999</v>
       </c>
-      <c r="F98" s="55" t="s">
+      <c r="F98" s="47" t="s">
         <v>398</v>
       </c>
       <c r="G98" s="17" t="s">
@@ -8480,7 +8515,7 @@
         <v>22502</v>
       </c>
       <c r="K98" s="22">
-        <f>J98-I98</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L98" s="23">
@@ -8508,8 +8543,8 @@
       <c r="V98" s="16">
         <v>75</v>
       </c>
-      <c r="W98" s="57">
-        <f t="shared" si="2"/>
+      <c r="W98" s="49">
+        <f t="shared" si="3"/>
         <v>1075</v>
       </c>
     </row>
@@ -8526,7 +8561,7 @@
       <c r="E99" s="30">
         <v>45000</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="47" t="s">
         <v>399</v>
       </c>
       <c r="G99" s="17" t="s">
@@ -8542,7 +8577,7 @@
         <v>22583</v>
       </c>
       <c r="K99" s="22">
-        <f>J99-I99</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="L99" s="23">
@@ -8574,8 +8609,8 @@
       <c r="V99" s="16">
         <v>0</v>
       </c>
-      <c r="W99" s="57">
-        <f t="shared" si="2"/>
+      <c r="W99" s="49">
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
     </row>
@@ -8592,7 +8627,7 @@
       <c r="E100" s="30">
         <v>45001</v>
       </c>
-      <c r="F100" s="55" t="s">
+      <c r="F100" s="47" t="s">
         <v>400</v>
       </c>
       <c r="G100" s="17" t="s">
@@ -8608,7 +8643,7 @@
         <v>22732</v>
       </c>
       <c r="K100" s="22">
-        <f>J100-I100</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="L100" s="23">
@@ -8636,8 +8671,8 @@
       <c r="V100" s="16">
         <v>225</v>
       </c>
-      <c r="W100" s="57">
-        <f t="shared" si="2"/>
+      <c r="W100" s="49">
+        <f t="shared" si="3"/>
         <v>3975</v>
       </c>
     </row>
@@ -8654,7 +8689,7 @@
       <c r="E101" s="30">
         <v>45002</v>
       </c>
-      <c r="F101" s="55" t="s">
+      <c r="F101" s="47" t="s">
         <v>401</v>
       </c>
       <c r="G101" s="17" t="s">
@@ -8670,7 +8705,7 @@
         <v>22827</v>
       </c>
       <c r="K101" s="22">
-        <f>J101-I101</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="L101" s="23">
@@ -8700,8 +8735,8 @@
       <c r="V101" s="16">
         <v>0</v>
       </c>
-      <c r="W101" s="57">
-        <f t="shared" si="2"/>
+      <c r="W101" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -8718,7 +8753,7 @@
       <c r="E102" s="30">
         <v>45003</v>
       </c>
-      <c r="F102" s="55" t="s">
+      <c r="F102" s="47" t="s">
         <v>402</v>
       </c>
       <c r="G102" s="17" t="s">
@@ -8734,7 +8769,7 @@
         <v>22869</v>
       </c>
       <c r="K102" s="22">
-        <f>J102-I102</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L102" s="23">
@@ -8762,8 +8797,8 @@
       <c r="V102" s="16">
         <v>0</v>
       </c>
-      <c r="W102" s="57">
-        <f t="shared" si="2"/>
+      <c r="W102" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -8780,7 +8815,7 @@
       <c r="E103" s="30">
         <v>44999</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="F103" s="47" t="s">
         <v>403</v>
       </c>
       <c r="G103" s="17" t="s">
@@ -8796,7 +8831,7 @@
         <v>22511</v>
       </c>
       <c r="K103" s="22">
-        <f>J103-I103</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L103" s="23">
@@ -8824,8 +8859,8 @@
       <c r="V103" s="16">
         <v>40</v>
       </c>
-      <c r="W103" s="57">
-        <f t="shared" si="2"/>
+      <c r="W103" s="49">
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
     </row>
@@ -8842,7 +8877,7 @@
       <c r="E104" s="30">
         <v>45000</v>
       </c>
-      <c r="F104" s="55" t="s">
+      <c r="F104" s="47" t="s">
         <v>404</v>
       </c>
       <c r="G104" s="17" t="s">
@@ -8858,7 +8893,7 @@
         <v>135112</v>
       </c>
       <c r="K104" s="22">
-        <f>J104-I104</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="L104" s="23">
@@ -8890,8 +8925,8 @@
       <c r="V104" s="16">
         <v>0</v>
       </c>
-      <c r="W104" s="57">
-        <f t="shared" si="2"/>
+      <c r="W104" s="49">
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
     </row>
@@ -8908,7 +8943,7 @@
       <c r="E105" s="30">
         <v>45001</v>
       </c>
-      <c r="F105" s="55" t="s">
+      <c r="F105" s="47" t="s">
         <v>405</v>
       </c>
       <c r="G105" s="17" t="s">
@@ -8924,7 +8959,7 @@
         <v>135187</v>
       </c>
       <c r="K105" s="22">
-        <f>J105-I105</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L105" s="23">
@@ -8956,8 +8991,8 @@
       <c r="V105" s="16">
         <v>0</v>
       </c>
-      <c r="W105" s="57">
-        <f t="shared" si="2"/>
+      <c r="W105" s="49">
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
     </row>
@@ -8974,7 +9009,7 @@
       <c r="E106" s="30">
         <v>45002</v>
       </c>
-      <c r="F106" s="55" t="s">
+      <c r="F106" s="47" t="s">
         <v>406</v>
       </c>
       <c r="G106" s="17" t="s">
@@ -8990,7 +9025,7 @@
         <v>135252</v>
       </c>
       <c r="K106" s="22">
-        <f>J106-I106</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="L106" s="23">
@@ -9022,8 +9057,8 @@
       <c r="V106" s="16">
         <v>0</v>
       </c>
-      <c r="W106" s="57">
-        <f t="shared" si="2"/>
+      <c r="W106" s="49">
+        <f t="shared" si="3"/>
         <v>3400</v>
       </c>
     </row>
@@ -9040,7 +9075,7 @@
       <c r="E107" s="30">
         <v>45003</v>
       </c>
-      <c r="F107" s="55" t="s">
+      <c r="F107" s="47" t="s">
         <v>407</v>
       </c>
       <c r="G107" s="17" t="s">
@@ -9056,7 +9091,7 @@
         <v>135292</v>
       </c>
       <c r="K107" s="22">
-        <f>J107-I107</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L107" s="23">
@@ -9084,8 +9119,8 @@
       <c r="V107" s="16">
         <v>0</v>
       </c>
-      <c r="W107" s="57">
-        <f t="shared" si="2"/>
+      <c r="W107" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -9102,7 +9137,7 @@
       <c r="E108" s="30">
         <v>44999</v>
       </c>
-      <c r="F108" s="55" t="s">
+      <c r="F108" s="47" t="s">
         <v>408</v>
       </c>
       <c r="G108" s="17" t="s">
@@ -9118,7 +9153,7 @@
         <v>1620</v>
       </c>
       <c r="K108" s="22">
-        <f>J108-I108</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L108" s="23">
@@ -9146,8 +9181,8 @@
       <c r="V108" s="16">
         <v>75</v>
       </c>
-      <c r="W108" s="57">
-        <f t="shared" si="2"/>
+      <c r="W108" s="49">
+        <f t="shared" si="3"/>
         <v>1075</v>
       </c>
     </row>
@@ -9164,7 +9199,7 @@
       <c r="E109" s="30">
         <v>45000</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="47" t="s">
         <v>409</v>
       </c>
       <c r="G109" s="17" t="s">
@@ -9180,7 +9215,7 @@
         <v>1672</v>
       </c>
       <c r="K109" s="22">
-        <f>J109-I109</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="L109" s="23">
@@ -9212,8 +9247,8 @@
       <c r="V109" s="16">
         <v>0</v>
       </c>
-      <c r="W109" s="57">
-        <f t="shared" si="2"/>
+      <c r="W109" s="49">
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
     </row>
@@ -9230,7 +9265,7 @@
       <c r="E110" s="30">
         <v>45001</v>
       </c>
-      <c r="F110" s="55" t="s">
+      <c r="F110" s="47" t="s">
         <v>410</v>
       </c>
       <c r="G110" s="17" t="s">
@@ -9246,7 +9281,7 @@
         <v>1724</v>
       </c>
       <c r="K110" s="22">
-        <f>J110-I110</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="L110" s="23">
@@ -9278,8 +9313,8 @@
       <c r="V110" s="16">
         <v>0</v>
       </c>
-      <c r="W110" s="57">
-        <f t="shared" si="2"/>
+      <c r="W110" s="49">
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
     </row>
@@ -9296,7 +9331,7 @@
       <c r="E111" s="30">
         <v>45002</v>
       </c>
-      <c r="F111" s="55" t="s">
+      <c r="F111" s="47" t="s">
         <v>411</v>
       </c>
       <c r="G111" s="17" t="s">
@@ -9312,7 +9347,7 @@
         <v>1779</v>
       </c>
       <c r="K111" s="22">
-        <f>J111-I111</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="L111" s="23">
@@ -9344,8 +9379,8 @@
       <c r="V111" s="16">
         <v>0</v>
       </c>
-      <c r="W111" s="57">
-        <f t="shared" si="2"/>
+      <c r="W111" s="49">
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
     </row>
@@ -9362,7 +9397,7 @@
       <c r="E112" s="30">
         <v>44999</v>
       </c>
-      <c r="F112" s="55" t="s">
+      <c r="F112" s="47" t="s">
         <v>412</v>
       </c>
       <c r="G112" s="17" t="s">
@@ -9378,7 +9413,7 @@
         <v>104333</v>
       </c>
       <c r="K112" s="22">
-        <f>J112-I112</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L112" s="23">
@@ -9406,8 +9441,8 @@
       <c r="V112" s="16">
         <v>0</v>
       </c>
-      <c r="W112" s="57">
-        <f t="shared" si="2"/>
+      <c r="W112" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -9424,7 +9459,7 @@
       <c r="E113" s="30">
         <v>45000</v>
       </c>
-      <c r="F113" s="55" t="s">
+      <c r="F113" s="47" t="s">
         <v>413</v>
       </c>
       <c r="G113" s="17" t="s">
@@ -9440,7 +9475,7 @@
         <v>165257</v>
       </c>
       <c r="K113" s="22">
-        <f>J113-I113</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="L113" s="23">
@@ -9472,8 +9507,8 @@
       <c r="V113" s="16">
         <v>0</v>
       </c>
-      <c r="W113" s="57">
-        <f t="shared" si="2"/>
+      <c r="W113" s="49">
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
     </row>
@@ -9490,7 +9525,7 @@
       <c r="E114" s="30">
         <v>45001</v>
       </c>
-      <c r="F114" s="55" t="s">
+      <c r="F114" s="47" t="s">
         <v>414</v>
       </c>
       <c r="G114" s="17" t="s">
@@ -9506,7 +9541,7 @@
         <v>165349</v>
       </c>
       <c r="K114" s="22">
-        <f>J114-I114</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="L114" s="23">
@@ -9538,8 +9573,8 @@
       <c r="V114" s="16">
         <v>0</v>
       </c>
-      <c r="W114" s="57">
-        <f t="shared" si="2"/>
+      <c r="W114" s="49">
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
@@ -9556,7 +9591,7 @@
       <c r="E115" s="30">
         <v>45002</v>
       </c>
-      <c r="F115" s="55" t="s">
+      <c r="F115" s="47" t="s">
         <v>415</v>
       </c>
       <c r="G115" s="17" t="s">
@@ -9572,7 +9607,7 @@
         <v>165505</v>
       </c>
       <c r="K115" s="22">
-        <f>J115-I115</f>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="L115" s="23">
@@ -9600,8 +9635,8 @@
       <c r="V115" s="16">
         <v>145</v>
       </c>
-      <c r="W115" s="57">
-        <f t="shared" si="2"/>
+      <c r="W115" s="49">
+        <f t="shared" si="3"/>
         <v>3895</v>
       </c>
     </row>
@@ -9618,7 +9653,7 @@
       <c r="E116" s="30">
         <v>45003</v>
       </c>
-      <c r="F116" s="55" t="s">
+      <c r="F116" s="47" t="s">
         <v>416</v>
       </c>
       <c r="G116" s="17" t="s">
@@ -9634,7 +9669,7 @@
         <v>165867</v>
       </c>
       <c r="K116" s="22">
-        <f>J116-I116</f>
+        <f t="shared" si="4"/>
         <v>362</v>
       </c>
       <c r="L116" s="23">
@@ -9662,8 +9697,8 @@
       <c r="V116" s="16">
         <v>690</v>
       </c>
-      <c r="W116" s="57">
-        <f t="shared" si="2"/>
+      <c r="W116" s="49">
+        <f t="shared" si="3"/>
         <v>5896</v>
       </c>
     </row>
@@ -9680,7 +9715,7 @@
       <c r="E117" s="30">
         <v>45004</v>
       </c>
-      <c r="F117" s="55" t="s">
+      <c r="F117" s="47" t="s">
         <v>417</v>
       </c>
       <c r="G117" s="17" t="s">
@@ -9696,7 +9731,7 @@
         <v>165908</v>
       </c>
       <c r="K117" s="22">
-        <f>J117-I117</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L117" s="23">
@@ -9724,8 +9759,8 @@
       <c r="V117" s="16">
         <v>0</v>
       </c>
-      <c r="W117" s="57">
-        <f t="shared" si="2"/>
+      <c r="W117" s="49">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -9742,7 +9777,7 @@
       <c r="E118" s="30">
         <v>44999</v>
       </c>
-      <c r="F118" s="55" t="s">
+      <c r="F118" s="47" t="s">
         <v>418</v>
       </c>
       <c r="G118" s="17" t="s">
@@ -9758,7 +9793,7 @@
         <v>144392</v>
       </c>
       <c r="K118" s="22">
-        <f>J118-I118</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="L118" s="23" t="s">
@@ -9790,8 +9825,8 @@
       <c r="V118" s="16">
         <v>75</v>
       </c>
-      <c r="W118" s="57">
-        <f t="shared" si="2"/>
+      <c r="W118" s="49">
+        <f t="shared" si="3"/>
         <v>5835</v>
       </c>
     </row>
@@ -9808,7 +9843,7 @@
       <c r="E119" s="30">
         <v>45000</v>
       </c>
-      <c r="F119" s="55" t="s">
+      <c r="F119" s="47" t="s">
         <v>419</v>
       </c>
       <c r="G119" s="17" t="s">
@@ -9824,7 +9859,7 @@
         <v>144436</v>
       </c>
       <c r="K119" s="22">
-        <f>J119-I119</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="L119" s="23" t="s">
@@ -9856,8 +9891,8 @@
       <c r="V119" s="16">
         <v>0</v>
       </c>
-      <c r="W119" s="57">
-        <f t="shared" si="2"/>
+      <c r="W119" s="49">
+        <f t="shared" si="3"/>
         <v>4800</v>
       </c>
     </row>
@@ -9874,7 +9909,7 @@
       <c r="E120" s="30">
         <v>45001</v>
       </c>
-      <c r="F120" s="55" t="s">
+      <c r="F120" s="47" t="s">
         <v>420</v>
       </c>
       <c r="G120" s="17" t="s">
@@ -9890,7 +9925,7 @@
         <v>144473</v>
       </c>
       <c r="K120" s="22">
-        <f>J120-I120</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="L120" s="23" t="s">
@@ -9918,8 +9953,8 @@
       <c r="V120" s="16">
         <v>0</v>
       </c>
-      <c r="W120" s="57">
-        <f t="shared" si="2"/>
+      <c r="W120" s="49">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
@@ -9936,7 +9971,7 @@
       <c r="E121" s="30">
         <v>44999</v>
       </c>
-      <c r="F121" s="55" t="s">
+      <c r="F121" s="47" t="s">
         <v>421</v>
       </c>
       <c r="G121" s="17" t="s">
@@ -9952,7 +9987,7 @@
         <v>106363</v>
       </c>
       <c r="K121" s="22">
-        <f>J121-I121</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="L121" s="23" t="s">
@@ -9980,8 +10015,8 @@
       <c r="V121" s="16">
         <v>0</v>
       </c>
-      <c r="W121" s="57">
-        <f t="shared" si="2"/>
+      <c r="W121" s="49">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="X121" s="1" t="s">
@@ -10001,7 +10036,7 @@
       <c r="E122" s="30">
         <v>44999</v>
       </c>
-      <c r="F122" s="55" t="s">
+      <c r="F122" s="47" t="s">
         <v>422</v>
       </c>
       <c r="G122" s="17" t="s">
@@ -10017,7 +10052,7 @@
         <v>140960</v>
       </c>
       <c r="K122" s="22">
-        <f>J122-I122</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L122" s="23" t="s">
@@ -10045,8 +10080,8 @@
       <c r="V122" s="16">
         <v>0</v>
       </c>
-      <c r="W122" s="57">
-        <f t="shared" si="2"/>
+      <c r="W122" s="49">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
@@ -10063,7 +10098,7 @@
       <c r="E123" s="30">
         <v>45000</v>
       </c>
-      <c r="F123" s="55" t="s">
+      <c r="F123" s="47" t="s">
         <v>423</v>
       </c>
       <c r="G123" s="17" t="s">
@@ -10079,7 +10114,7 @@
         <v>141050</v>
       </c>
       <c r="K123" s="22">
-        <f>J123-I123</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="L123" s="23" t="s">
@@ -10111,8 +10146,8 @@
       <c r="V123" s="16">
         <v>0</v>
       </c>
-      <c r="W123" s="57">
-        <f t="shared" si="2"/>
+      <c r="W123" s="49">
+        <f t="shared" si="3"/>
         <v>5760</v>
       </c>
     </row>
@@ -10129,7 +10164,7 @@
       <c r="E124" s="30">
         <v>45001</v>
       </c>
-      <c r="F124" s="55" t="s">
+      <c r="F124" s="47" t="s">
         <v>424</v>
       </c>
       <c r="G124" s="17" t="s">
@@ -10145,7 +10180,7 @@
         <v>141208</v>
       </c>
       <c r="K124" s="22">
-        <f>J124-I124</f>
+        <f t="shared" si="4"/>
         <v>158</v>
       </c>
       <c r="L124" s="23" t="s">
@@ -10177,8 +10212,8 @@
       <c r="V124" s="16">
         <v>0</v>
       </c>
-      <c r="W124" s="57">
-        <f t="shared" si="2"/>
+      <c r="W124" s="49">
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
     </row>
@@ -10195,7 +10230,7 @@
       <c r="E125" s="30">
         <v>44999</v>
       </c>
-      <c r="F125" s="55" t="s">
+      <c r="F125" s="47" t="s">
         <v>425</v>
       </c>
       <c r="G125" s="17" t="s">
@@ -10211,7 +10246,7 @@
         <v>154017</v>
       </c>
       <c r="K125" s="22">
-        <f>J125-I125</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="L125" s="23" t="s">
@@ -10239,8 +10274,8 @@
       <c r="V125" s="16">
         <v>0</v>
       </c>
-      <c r="W125" s="57">
-        <f t="shared" si="2"/>
+      <c r="W125" s="49">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
@@ -10257,7 +10292,7 @@
       <c r="E126" s="30">
         <v>45000</v>
       </c>
-      <c r="F126" s="55" t="s">
+      <c r="F126" s="47" t="s">
         <v>426</v>
       </c>
       <c r="G126" s="17" t="s">
@@ -10273,7 +10308,7 @@
         <v>154092</v>
       </c>
       <c r="K126" s="22">
-        <f>J126-I126</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="L126" s="23" t="s">
@@ -10305,8 +10340,8 @@
       <c r="V126" s="16">
         <v>0</v>
       </c>
-      <c r="W126" s="57">
-        <f t="shared" si="2"/>
+      <c r="W126" s="49">
+        <f t="shared" si="3"/>
         <v>5120</v>
       </c>
     </row>
@@ -10323,7 +10358,7 @@
       <c r="E127" s="30">
         <v>45001</v>
       </c>
-      <c r="F127" s="55" t="s">
+      <c r="F127" s="47" t="s">
         <v>427</v>
       </c>
       <c r="G127" s="17" t="s">
@@ -10339,7 +10374,7 @@
         <v>154173</v>
       </c>
       <c r="K127" s="22">
-        <f>J127-I127</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="L127" s="23">
@@ -10371,8 +10406,8 @@
       <c r="V127" s="16">
         <v>0</v>
       </c>
-      <c r="W127" s="57">
-        <f t="shared" si="2"/>
+      <c r="W127" s="49">
+        <f t="shared" si="3"/>
         <v>5760</v>
       </c>
     </row>
@@ -10389,7 +10424,7 @@
       <c r="E128" s="30">
         <v>45002</v>
       </c>
-      <c r="F128" s="55" t="s">
+      <c r="F128" s="47" t="s">
         <v>428</v>
       </c>
       <c r="G128" s="17" t="s">
@@ -10405,7 +10440,7 @@
         <v>154259</v>
       </c>
       <c r="K128" s="22">
-        <f>J128-I128</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="L128" s="23">
@@ -10437,8 +10472,8 @@
       <c r="V128" s="16">
         <v>0</v>
       </c>
-      <c r="W128" s="57">
-        <f t="shared" si="2"/>
+      <c r="W128" s="49">
+        <f t="shared" si="3"/>
         <v>5760</v>
       </c>
     </row>
@@ -10455,7 +10490,7 @@
       <c r="E129" s="30">
         <v>45003</v>
       </c>
-      <c r="F129" s="55" t="s">
+      <c r="F129" s="47" t="s">
         <v>429</v>
       </c>
       <c r="G129" s="17" t="s">
@@ -10471,7 +10506,7 @@
         <v>154317</v>
       </c>
       <c r="K129" s="22">
-        <f>J129-I129</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="L129" s="23">
@@ -10503,8 +10538,8 @@
       <c r="V129" s="16">
         <v>0</v>
       </c>
-      <c r="W129" s="57">
-        <f t="shared" si="2"/>
+      <c r="W129" s="49">
+        <f t="shared" si="3"/>
         <v>3840</v>
       </c>
     </row>
@@ -10521,7 +10556,7 @@
       <c r="E130" s="30">
         <v>44999</v>
       </c>
-      <c r="F130" s="55" t="s">
+      <c r="F130" s="47" t="s">
         <v>430</v>
       </c>
       <c r="G130" s="17" t="s">
@@ -10537,7 +10572,7 @@
         <v>192867</v>
       </c>
       <c r="K130" s="22">
-        <f>J130-I130</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="L130" s="23" t="s">
@@ -10565,8 +10600,8 @@
       <c r="V130" s="16">
         <v>0</v>
       </c>
-      <c r="W130" s="57">
-        <f t="shared" si="2"/>
+      <c r="W130" s="49">
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
@@ -10583,7 +10618,7 @@
       <c r="E131" s="30">
         <v>45000</v>
       </c>
-      <c r="F131" s="55" t="s">
+      <c r="F131" s="47" t="s">
         <v>431</v>
       </c>
       <c r="G131" s="17" t="s">
@@ -10599,7 +10634,7 @@
         <v>192941</v>
       </c>
       <c r="K131" s="22">
-        <f>J131-I131</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="L131" s="23" t="s">
@@ -10631,8 +10666,8 @@
       <c r="V131" s="16">
         <v>0</v>
       </c>
-      <c r="W131" s="57">
-        <f t="shared" si="2"/>
+      <c r="W131" s="49">
+        <f t="shared" si="3"/>
         <v>5760</v>
       </c>
     </row>
@@ -10649,7 +10684,7 @@
       <c r="E132" s="30">
         <v>45001</v>
       </c>
-      <c r="F132" s="55" t="s">
+      <c r="F132" s="47" t="s">
         <v>432</v>
       </c>
       <c r="G132" s="17" t="s">
@@ -10665,7 +10700,7 @@
         <v>192998</v>
       </c>
       <c r="K132" s="22">
-        <f>J132-I132</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="L132" s="23" t="s">
@@ -10697,8 +10732,8 @@
       <c r="V132" s="16">
         <v>0</v>
       </c>
-      <c r="W132" s="57">
-        <f t="shared" si="2"/>
+      <c r="W132" s="49">
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
     </row>
@@ -10715,7 +10750,7 @@
       <c r="E133" s="30">
         <v>44999</v>
       </c>
-      <c r="F133" s="55" t="s">
+      <c r="F133" s="47" t="s">
         <v>433</v>
       </c>
       <c r="G133" s="17" t="s">
@@ -10731,7 +10766,7 @@
         <v>138905</v>
       </c>
       <c r="K133" s="22">
-        <f>J133-I133</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="L133" s="23" t="s">
@@ -10763,8 +10798,8 @@
       <c r="V133" s="16">
         <v>0</v>
       </c>
-      <c r="W133" s="57">
-        <f t="shared" si="2"/>
+      <c r="W133" s="49">
+        <f t="shared" si="3"/>
         <v>5440</v>
       </c>
     </row>
@@ -10781,7 +10816,7 @@
       <c r="E134" s="30">
         <v>45000</v>
       </c>
-      <c r="F134" s="55" t="s">
+      <c r="F134" s="47" t="s">
         <v>434</v>
       </c>
       <c r="G134" s="17" t="s">
@@ -10797,7 +10832,7 @@
         <v>139002</v>
       </c>
       <c r="K134" s="22">
-        <f>J134-I134</f>
+        <f t="shared" ref="K134:K197" si="5">J134-I134</f>
         <v>97</v>
       </c>
       <c r="L134" s="23" t="s">
@@ -10829,8 +10864,8 @@
       <c r="V134" s="16">
         <v>655</v>
       </c>
-      <c r="W134" s="57">
-        <f t="shared" si="2"/>
+      <c r="W134" s="49">
+        <f t="shared" si="3"/>
         <v>6415</v>
       </c>
     </row>
@@ -10847,7 +10882,7 @@
       <c r="E135" s="30">
         <v>45001</v>
       </c>
-      <c r="F135" s="55" t="s">
+      <c r="F135" s="47" t="s">
         <v>435</v>
       </c>
       <c r="G135" s="17" t="s">
@@ -10863,7 +10898,7 @@
         <v>139069</v>
       </c>
       <c r="K135" s="22">
-        <f>J135-I135</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L135" s="23" t="s">
@@ -10895,8 +10930,8 @@
       <c r="V135" s="16">
         <v>0</v>
       </c>
-      <c r="W135" s="57">
-        <f t="shared" si="2"/>
+      <c r="W135" s="49">
+        <f t="shared" si="3"/>
         <v>6080</v>
       </c>
     </row>
@@ -10913,7 +10948,7 @@
       <c r="E136" s="30">
         <v>45002</v>
       </c>
-      <c r="F136" s="55" t="s">
+      <c r="F136" s="47" t="s">
         <v>436</v>
       </c>
       <c r="G136" s="17" t="s">
@@ -10929,7 +10964,7 @@
         <v>139133</v>
       </c>
       <c r="K136" s="22">
-        <f>J136-I136</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="L136" s="23" t="s">
@@ -10961,8 +10996,8 @@
       <c r="V136" s="16">
         <v>150</v>
       </c>
-      <c r="W136" s="57">
-        <f t="shared" ref="W136:W199" si="3">SUM(T136:V136)</f>
+      <c r="W136" s="49">
+        <f t="shared" ref="W136:W199" si="6">SUM(T136:V136)</f>
         <v>5910</v>
       </c>
     </row>
@@ -10979,7 +11014,7 @@
       <c r="E137" s="30">
         <v>45003</v>
       </c>
-      <c r="F137" s="55" t="s">
+      <c r="F137" s="47" t="s">
         <v>437</v>
       </c>
       <c r="G137" s="17" t="s">
@@ -10995,7 +11030,7 @@
         <v>139205</v>
       </c>
       <c r="K137" s="22">
-        <f>J137-I137</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="L137" s="23" t="s">
@@ -11023,8 +11058,8 @@
       <c r="V137" s="16">
         <v>0</v>
       </c>
-      <c r="W137" s="57">
-        <f t="shared" si="3"/>
+      <c r="W137" s="49">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
     </row>
@@ -11041,7 +11076,7 @@
       <c r="E138" s="30">
         <v>45000</v>
       </c>
-      <c r="F138" s="55" t="s">
+      <c r="F138" s="47" t="s">
         <v>438</v>
       </c>
       <c r="G138" s="17" t="s">
@@ -11057,7 +11092,7 @@
         <v>126325</v>
       </c>
       <c r="K138" s="22">
-        <f>J138-I138</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L138" s="23" t="s">
@@ -11085,8 +11120,8 @@
       <c r="V138" s="16">
         <v>0</v>
       </c>
-      <c r="W138" s="57">
-        <f t="shared" si="3"/>
+      <c r="W138" s="49">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -11103,7 +11138,7 @@
       <c r="E139" s="30">
         <v>45002</v>
       </c>
-      <c r="F139" s="55" t="s">
+      <c r="F139" s="47" t="s">
         <v>439</v>
       </c>
       <c r="G139" s="17" t="s">
@@ -11119,7 +11154,7 @@
         <v>126695</v>
       </c>
       <c r="K139" s="22">
-        <f>J139-I139</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="L139" s="23" t="s">
@@ -11147,8 +11182,8 @@
       <c r="V139" s="16">
         <v>2195</v>
       </c>
-      <c r="W139" s="57">
-        <f t="shared" si="3"/>
+      <c r="W139" s="49">
+        <f t="shared" si="6"/>
         <v>12195</v>
       </c>
     </row>
@@ -11165,7 +11200,7 @@
       <c r="E140" s="30">
         <v>45003</v>
       </c>
-      <c r="F140" s="55" t="s">
+      <c r="F140" s="47" t="s">
         <v>440</v>
       </c>
       <c r="G140" s="17" t="s">
@@ -11181,7 +11216,7 @@
         <v>126762</v>
       </c>
       <c r="K140" s="22">
-        <f>J140-I140</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L140" s="23" t="s">
@@ -11213,8 +11248,8 @@
       <c r="V140" s="16">
         <v>0</v>
       </c>
-      <c r="W140" s="57">
-        <f t="shared" si="3"/>
+      <c r="W140" s="49">
+        <f t="shared" si="6"/>
         <v>4480</v>
       </c>
     </row>
@@ -11231,7 +11266,7 @@
       <c r="E141" s="30">
         <v>45000</v>
       </c>
-      <c r="F141" s="55" t="s">
+      <c r="F141" s="47" t="s">
         <v>441</v>
       </c>
       <c r="G141" s="17" t="s">
@@ -11247,7 +11282,7 @@
         <v>165790</v>
       </c>
       <c r="K141" s="22">
-        <f>J141-I141</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L141" s="23" t="s">
@@ -11275,8 +11310,8 @@
       <c r="V141" s="16">
         <v>245</v>
       </c>
-      <c r="W141" s="57">
-        <f t="shared" si="3"/>
+      <c r="W141" s="49">
+        <f t="shared" si="6"/>
         <v>2045</v>
       </c>
     </row>
@@ -11293,7 +11328,7 @@
       <c r="E142" s="30">
         <v>45001</v>
       </c>
-      <c r="F142" s="55" t="s">
+      <c r="F142" s="47" t="s">
         <v>442</v>
       </c>
       <c r="G142" s="17" t="s">
@@ -11309,7 +11344,7 @@
         <v>165927</v>
       </c>
       <c r="K142" s="22">
-        <f>J142-I142</f>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="L142" s="23" t="s">
@@ -11341,8 +11376,8 @@
       <c r="V142" s="16">
         <v>155</v>
       </c>
-      <c r="W142" s="57">
-        <f t="shared" si="3"/>
+      <c r="W142" s="49">
+        <f t="shared" si="6"/>
         <v>5915</v>
       </c>
     </row>
@@ -11359,7 +11394,7 @@
       <c r="E143" s="30">
         <v>45003</v>
       </c>
-      <c r="F143" s="55" t="s">
+      <c r="F143" s="47" t="s">
         <v>443</v>
       </c>
       <c r="G143" s="17" t="s">
@@ -11375,7 +11410,7 @@
         <v>149275</v>
       </c>
       <c r="K143" s="22">
-        <f>J143-I143</f>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="L143" s="23" t="s">
@@ -11403,8 +11438,8 @@
       <c r="V143" s="16">
         <v>3025</v>
       </c>
-      <c r="W143" s="57">
-        <f t="shared" si="3"/>
+      <c r="W143" s="49">
+        <f t="shared" si="6"/>
         <v>13025</v>
       </c>
     </row>
@@ -11421,7 +11456,7 @@
       <c r="E144" s="30">
         <v>45001</v>
       </c>
-      <c r="F144" s="55" t="s">
+      <c r="F144" s="47" t="s">
         <v>444</v>
       </c>
       <c r="G144" s="17" t="s">
@@ -11437,7 +11472,7 @@
         <v>193035</v>
       </c>
       <c r="K144" s="22">
-        <f>J144-I144</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L144" s="23" t="s">
@@ -11465,8 +11500,8 @@
       <c r="V144" s="16">
         <v>0</v>
       </c>
-      <c r="W144" s="57">
-        <f t="shared" si="3"/>
+      <c r="W144" s="49">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -11483,7 +11518,7 @@
       <c r="E145" s="30">
         <v>45002</v>
       </c>
-      <c r="F145" s="55" t="s">
+      <c r="F145" s="47" t="s">
         <v>445</v>
       </c>
       <c r="G145" s="17" t="s">
@@ -11499,7 +11534,7 @@
         <v>129962</v>
       </c>
       <c r="K145" s="22">
-        <f>J145-I145</f>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="L145" s="23">
@@ -11531,8 +11566,8 @@
       <c r="V145" s="16">
         <v>150</v>
       </c>
-      <c r="W145" s="57">
-        <f t="shared" si="3"/>
+      <c r="W145" s="49">
+        <f t="shared" si="6"/>
         <v>6230</v>
       </c>
     </row>
@@ -11549,7 +11584,7 @@
       <c r="E146" s="30">
         <v>45003</v>
       </c>
-      <c r="F146" s="55" t="s">
+      <c r="F146" s="47" t="s">
         <v>446</v>
       </c>
       <c r="G146" s="17" t="s">
@@ -11565,7 +11600,7 @@
         <v>130025</v>
       </c>
       <c r="K146" s="22">
-        <f>J146-I146</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="L146" s="23">
@@ -11597,8 +11632,8 @@
       <c r="V146" s="16">
         <v>0</v>
       </c>
-      <c r="W146" s="57">
-        <f t="shared" si="3"/>
+      <c r="W146" s="49">
+        <f t="shared" si="6"/>
         <v>3520</v>
       </c>
     </row>
@@ -11615,7 +11650,7 @@
       <c r="E147" s="30">
         <v>45000</v>
       </c>
-      <c r="F147" s="55" t="s">
+      <c r="F147" s="47" t="s">
         <v>447</v>
       </c>
       <c r="G147" s="17" t="s">
@@ -11631,7 +11666,7 @@
         <v>149291</v>
       </c>
       <c r="K147" s="22">
-        <f>J147-I147</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="L147" s="23" t="s">
@@ -11659,8 +11694,8 @@
       <c r="V147" s="16">
         <v>100</v>
       </c>
-      <c r="W147" s="57">
-        <f t="shared" si="3"/>
+      <c r="W147" s="49">
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="X147" s="1" t="s">
@@ -11680,7 +11715,7 @@
       <c r="E148" s="30">
         <v>45001</v>
       </c>
-      <c r="F148" s="55" t="s">
+      <c r="F148" s="47" t="s">
         <v>448</v>
       </c>
       <c r="G148" s="17" t="s">
@@ -11696,7 +11731,7 @@
         <v>149703</v>
       </c>
       <c r="K148" s="22">
-        <f>J148-I148</f>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="L148" s="23" t="s">
@@ -11724,8 +11759,8 @@
       <c r="V148" s="16">
         <v>1400</v>
       </c>
-      <c r="W148" s="57">
-        <f t="shared" si="3"/>
+      <c r="W148" s="49">
+        <f t="shared" si="6"/>
         <v>11400</v>
       </c>
     </row>
@@ -11742,7 +11777,7 @@
       <c r="E149" s="30">
         <v>45001</v>
       </c>
-      <c r="F149" s="55" t="s">
+      <c r="F149" s="47" t="s">
         <v>449</v>
       </c>
       <c r="G149" s="17" t="s">
@@ -11758,7 +11793,7 @@
         <v>149790</v>
       </c>
       <c r="K149" s="22">
-        <f>J149-I149</f>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="L149" s="24" t="s">
@@ -11790,8 +11825,8 @@
       <c r="V149" s="16">
         <v>80</v>
       </c>
-      <c r="W149" s="57">
-        <f t="shared" si="3"/>
+      <c r="W149" s="49">
+        <f t="shared" si="6"/>
         <v>4240</v>
       </c>
     </row>
@@ -11808,7 +11843,7 @@
       <c r="E150" s="30">
         <v>45002</v>
       </c>
-      <c r="F150" s="55" t="s">
+      <c r="F150" s="47" t="s">
         <v>450</v>
       </c>
       <c r="G150" s="17" t="s">
@@ -11824,7 +11859,7 @@
         <v>149901</v>
       </c>
       <c r="K150" s="22">
-        <f>J150-I150</f>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="L150" s="23">
@@ -11856,8 +11891,8 @@
       <c r="V150" s="16">
         <v>0</v>
       </c>
-      <c r="W150" s="57">
-        <f t="shared" si="3"/>
+      <c r="W150" s="49">
+        <f t="shared" si="6"/>
         <v>7040</v>
       </c>
     </row>
@@ -11874,7 +11909,7 @@
       <c r="E151" s="30">
         <v>45003</v>
       </c>
-      <c r="F151" s="55" t="s">
+      <c r="F151" s="47" t="s">
         <v>451</v>
       </c>
       <c r="G151" s="17" t="s">
@@ -11890,7 +11925,7 @@
         <v>149998</v>
       </c>
       <c r="K151" s="22">
-        <f>J151-I151</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="L151" s="23">
@@ -11922,8 +11957,8 @@
       <c r="V151" s="16">
         <v>40</v>
       </c>
-      <c r="W151" s="57">
-        <f t="shared" si="3"/>
+      <c r="W151" s="49">
+        <f t="shared" si="6"/>
         <v>5480</v>
       </c>
     </row>
@@ -11940,7 +11975,7 @@
       <c r="E152" s="30">
         <v>45000</v>
       </c>
-      <c r="F152" s="55" t="s">
+      <c r="F152" s="47" t="s">
         <v>452</v>
       </c>
       <c r="G152" s="17" t="s">
@@ -11956,7 +11991,7 @@
         <v>123082</v>
       </c>
       <c r="K152" s="22">
-        <f>J152-I152</f>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="L152" s="23">
@@ -11988,8 +12023,8 @@
       <c r="V152" s="16">
         <v>0</v>
       </c>
-      <c r="W152" s="57">
-        <f t="shared" si="3"/>
+      <c r="W152" s="49">
+        <f t="shared" si="6"/>
         <v>5440</v>
       </c>
     </row>
@@ -12006,7 +12041,7 @@
       <c r="E153" s="30">
         <v>45001</v>
       </c>
-      <c r="F153" s="55" t="s">
+      <c r="F153" s="47" t="s">
         <v>453</v>
       </c>
       <c r="G153" s="17" t="s">
@@ -12022,7 +12057,7 @@
         <v>123201</v>
       </c>
       <c r="K153" s="22">
-        <f>J153-I153</f>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="L153" s="23" t="s">
@@ -12054,8 +12089,8 @@
       <c r="V153" s="16">
         <v>0</v>
       </c>
-      <c r="W153" s="57">
-        <f t="shared" si="3"/>
+      <c r="W153" s="49">
+        <f t="shared" si="6"/>
         <v>7360</v>
       </c>
     </row>
@@ -12072,7 +12107,7 @@
       <c r="E154" s="30">
         <v>45002</v>
       </c>
-      <c r="F154" s="55" t="s">
+      <c r="F154" s="47" t="s">
         <v>454</v>
       </c>
       <c r="G154" s="17" t="s">
@@ -12088,7 +12123,7 @@
         <v>123240</v>
       </c>
       <c r="K154" s="22">
-        <f>J154-I154</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L154" s="23" t="s">
@@ -12116,8 +12151,8 @@
       <c r="V154" s="16">
         <v>0</v>
       </c>
-      <c r="W154" s="57">
-        <f t="shared" si="3"/>
+      <c r="W154" s="49">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -12134,7 +12169,7 @@
       <c r="E155" s="30">
         <v>45001</v>
       </c>
-      <c r="F155" s="55" t="s">
+      <c r="F155" s="47" t="s">
         <v>455</v>
       </c>
       <c r="G155" s="17" t="s">
@@ -12150,7 +12185,7 @@
         <v>177686</v>
       </c>
       <c r="K155" s="22">
-        <f>J155-I155</f>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="L155" s="23" t="s">
@@ -12182,8 +12217,8 @@
       <c r="V155" s="16">
         <v>75</v>
       </c>
-      <c r="W155" s="57">
-        <f t="shared" si="3"/>
+      <c r="W155" s="49">
+        <f t="shared" si="6"/>
         <v>5515</v>
       </c>
     </row>
@@ -12200,7 +12235,7 @@
       <c r="E156" s="30">
         <v>45002</v>
       </c>
-      <c r="F156" s="55" t="s">
+      <c r="F156" s="47" t="s">
         <v>456</v>
       </c>
       <c r="G156" s="17" t="s">
@@ -12216,7 +12251,7 @@
         <v>177807</v>
       </c>
       <c r="K156" s="22">
-        <f>J156-I156</f>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="L156" s="23" t="s">
@@ -12248,8 +12283,8 @@
       <c r="V156" s="16">
         <v>0</v>
       </c>
-      <c r="W156" s="57">
-        <f t="shared" si="3"/>
+      <c r="W156" s="49">
+        <f t="shared" si="6"/>
         <v>6400</v>
       </c>
     </row>
@@ -12266,7 +12301,7 @@
       <c r="E157" s="30">
         <v>45003</v>
       </c>
-      <c r="F157" s="55" t="s">
+      <c r="F157" s="47" t="s">
         <v>457</v>
       </c>
       <c r="G157" s="17" t="s">
@@ -12282,7 +12317,7 @@
         <v>177851</v>
       </c>
       <c r="K157" s="22">
-        <f>J157-I157</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L157" s="23">
@@ -12310,8 +12345,8 @@
       <c r="V157" s="16">
         <v>0</v>
       </c>
-      <c r="W157" s="57">
-        <f t="shared" si="3"/>
+      <c r="W157" s="49">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
     </row>
@@ -12328,7 +12363,7 @@
       <c r="E158" s="30">
         <v>45000</v>
       </c>
-      <c r="F158" s="55" t="s">
+      <c r="F158" s="47" t="s">
         <v>458</v>
       </c>
       <c r="G158" s="17" t="s">
@@ -12344,7 +12379,7 @@
         <v>104221</v>
       </c>
       <c r="K158" s="22">
-        <f>J158-I158</f>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="L158" s="23">
@@ -12376,8 +12411,8 @@
       <c r="V158" s="16">
         <v>100</v>
       </c>
-      <c r="W158" s="57">
-        <f t="shared" si="3"/>
+      <c r="W158" s="49">
+        <f t="shared" si="6"/>
         <v>5540</v>
       </c>
     </row>
@@ -12394,7 +12429,7 @@
       <c r="E159" s="30">
         <v>45001</v>
       </c>
-      <c r="F159" s="55" t="s">
+      <c r="F159" s="47" t="s">
         <v>459</v>
       </c>
       <c r="G159" s="17" t="s">
@@ -12410,7 +12445,7 @@
         <v>104310</v>
       </c>
       <c r="K159" s="22">
-        <f>J159-I159</f>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="L159" s="23">
@@ -12442,8 +12477,8 @@
       <c r="V159" s="16">
         <v>0</v>
       </c>
-      <c r="W159" s="57">
-        <f t="shared" si="3"/>
+      <c r="W159" s="49">
+        <f t="shared" si="6"/>
         <v>7360</v>
       </c>
     </row>
@@ -12460,7 +12495,7 @@
       <c r="E160" s="30">
         <v>45002</v>
       </c>
-      <c r="F160" s="55" t="s">
+      <c r="F160" s="47" t="s">
         <v>460</v>
       </c>
       <c r="G160" s="17" t="s">
@@ -12476,7 +12511,7 @@
         <v>104416</v>
       </c>
       <c r="K160" s="22">
-        <f>J160-I160</f>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="L160" s="23">
@@ -12508,8 +12543,8 @@
       <c r="V160" s="16">
         <v>0</v>
       </c>
-      <c r="W160" s="57">
-        <f t="shared" si="3"/>
+      <c r="W160" s="49">
+        <f t="shared" si="6"/>
         <v>7040</v>
       </c>
     </row>
@@ -12526,7 +12561,7 @@
       <c r="E161" s="30">
         <v>45003</v>
       </c>
-      <c r="F161" s="55" t="s">
+      <c r="F161" s="47" t="s">
         <v>461</v>
       </c>
       <c r="G161" s="17" t="s">
@@ -12542,7 +12577,7 @@
         <v>104520</v>
       </c>
       <c r="K161" s="22">
-        <f>J161-I161</f>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="L161" s="23" t="s">
@@ -12574,8 +12609,8 @@
       <c r="V161" s="16">
         <v>0</v>
       </c>
-      <c r="W161" s="57">
-        <f t="shared" si="3"/>
+      <c r="W161" s="49">
+        <f t="shared" si="6"/>
         <v>4800</v>
       </c>
     </row>
@@ -12592,7 +12627,7 @@
       <c r="E162" s="30">
         <v>45001</v>
       </c>
-      <c r="F162" s="55" t="s">
+      <c r="F162" s="47" t="s">
         <v>462</v>
       </c>
       <c r="G162" s="17" t="s">
@@ -12608,7 +12643,7 @@
         <v>357032</v>
       </c>
       <c r="K162" s="22">
-        <f>J162-I162</f>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="L162" s="23">
@@ -12640,8 +12675,8 @@
       <c r="V162" s="16">
         <v>0</v>
       </c>
-      <c r="W162" s="57">
-        <f t="shared" si="3"/>
+      <c r="W162" s="49">
+        <f t="shared" si="6"/>
         <v>4800</v>
       </c>
     </row>
@@ -12658,7 +12693,7 @@
       <c r="E163" s="30">
         <v>45001</v>
       </c>
-      <c r="F163" s="55" t="s">
+      <c r="F163" s="47" t="s">
         <v>463</v>
       </c>
       <c r="G163" s="17" t="s">
@@ -12674,7 +12709,7 @@
         <v>234132</v>
       </c>
       <c r="K163" s="22">
-        <f>J163-I163</f>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="L163" s="23">
@@ -12706,8 +12741,8 @@
       <c r="V163" s="16">
         <v>0</v>
       </c>
-      <c r="W163" s="57">
-        <f t="shared" si="3"/>
+      <c r="W163" s="49">
+        <f t="shared" si="6"/>
         <v>5440</v>
       </c>
     </row>
@@ -12724,7 +12759,7 @@
       <c r="E164" s="30">
         <v>45001</v>
       </c>
-      <c r="F164" s="55" t="s">
+      <c r="F164" s="47" t="s">
         <v>464</v>
       </c>
       <c r="G164" s="17" t="s">
@@ -12740,7 +12775,7 @@
         <v>70904</v>
       </c>
       <c r="K164" s="22">
-        <f>J164-I164</f>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="L164" s="23">
@@ -12772,8 +12807,8 @@
       <c r="V164" s="16">
         <v>0</v>
       </c>
-      <c r="W164" s="57">
-        <f t="shared" si="3"/>
+      <c r="W164" s="49">
+        <f t="shared" si="6"/>
         <v>7040</v>
       </c>
     </row>
@@ -12790,7 +12825,7 @@
       <c r="E165" s="30">
         <v>45002</v>
       </c>
-      <c r="F165" s="55" t="s">
+      <c r="F165" s="47" t="s">
         <v>465</v>
       </c>
       <c r="G165" s="17" t="s">
@@ -12806,7 +12841,7 @@
         <v>71039</v>
       </c>
       <c r="K165" s="22">
-        <f>J165-I165</f>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="L165" s="23">
@@ -12838,8 +12873,8 @@
       <c r="V165" s="16">
         <v>0</v>
       </c>
-      <c r="W165" s="57">
-        <f t="shared" si="3"/>
+      <c r="W165" s="49">
+        <f t="shared" si="6"/>
         <v>6400</v>
       </c>
     </row>
@@ -12856,7 +12891,7 @@
       <c r="E166" s="30">
         <v>45003</v>
       </c>
-      <c r="F166" s="55" t="s">
+      <c r="F166" s="47" t="s">
         <v>466</v>
       </c>
       <c r="G166" s="17" t="s">
@@ -12872,7 +12907,7 @@
         <v>71121</v>
       </c>
       <c r="K166" s="22">
-        <f>J166-I166</f>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="L166" s="23">
@@ -12904,8 +12939,8 @@
       <c r="V166" s="16">
         <v>0</v>
       </c>
-      <c r="W166" s="57">
-        <f t="shared" si="3"/>
+      <c r="W166" s="49">
+        <f t="shared" si="6"/>
         <v>4800</v>
       </c>
     </row>
@@ -12922,7 +12957,7 @@
       <c r="E167" s="30">
         <v>45000</v>
       </c>
-      <c r="F167" s="55" t="s">
+      <c r="F167" s="47" t="s">
         <v>467</v>
       </c>
       <c r="G167" s="17" t="s">
@@ -12938,7 +12973,7 @@
         <v>72312</v>
       </c>
       <c r="K167" s="22">
-        <f>J167-I167</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="L167" s="23">
@@ -12970,8 +13005,8 @@
       <c r="V167" s="16">
         <v>0</v>
       </c>
-      <c r="W167" s="57">
-        <f t="shared" si="3"/>
+      <c r="W167" s="49">
+        <f t="shared" si="6"/>
         <v>5760</v>
       </c>
     </row>
@@ -12988,7 +13023,7 @@
       <c r="E168" s="30">
         <v>45001</v>
       </c>
-      <c r="F168" s="55" t="s">
+      <c r="F168" s="47" t="s">
         <v>468</v>
       </c>
       <c r="G168" s="17" t="s">
@@ -13004,7 +13039,7 @@
         <v>72417</v>
       </c>
       <c r="K168" s="22">
-        <f>J168-I168</f>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="L168" s="23" t="s">
@@ -13036,8 +13071,8 @@
       <c r="V168" s="16">
         <v>0</v>
       </c>
-      <c r="W168" s="57">
-        <f t="shared" si="3"/>
+      <c r="W168" s="49">
+        <f t="shared" si="6"/>
         <v>6080</v>
       </c>
     </row>
@@ -13054,7 +13089,7 @@
       <c r="E169" s="30">
         <v>45002</v>
       </c>
-      <c r="F169" s="55" t="s">
+      <c r="F169" s="47" t="s">
         <v>469</v>
       </c>
       <c r="G169" s="17" t="s">
@@ -13070,7 +13105,7 @@
         <v>72508</v>
       </c>
       <c r="K169" s="22">
-        <f>J169-I169</f>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="L169" s="23" t="s">
@@ -13102,8 +13137,8 @@
       <c r="V169" s="16">
         <v>0</v>
       </c>
-      <c r="W169" s="57">
-        <f t="shared" si="3"/>
+      <c r="W169" s="49">
+        <f t="shared" si="6"/>
         <v>6080</v>
       </c>
     </row>
@@ -13120,7 +13155,7 @@
       <c r="E170" s="30">
         <v>45003</v>
       </c>
-      <c r="F170" s="55" t="s">
+      <c r="F170" s="47" t="s">
         <v>470</v>
       </c>
       <c r="G170" s="17" t="s">
@@ -13136,7 +13171,7 @@
         <v>72627</v>
       </c>
       <c r="K170" s="22">
-        <f>J170-I170</f>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="L170" s="23" t="s">
@@ -13168,8 +13203,8 @@
       <c r="V170" s="16">
         <v>0</v>
       </c>
-      <c r="W170" s="57">
-        <f t="shared" si="3"/>
+      <c r="W170" s="49">
+        <f t="shared" si="6"/>
         <v>5760</v>
       </c>
     </row>
@@ -13186,7 +13221,7 @@
       <c r="E171" s="30">
         <v>45004</v>
       </c>
-      <c r="F171" s="55" t="s">
+      <c r="F171" s="47" t="s">
         <v>471</v>
       </c>
       <c r="G171" s="17" t="s">
@@ -13202,7 +13237,7 @@
         <v>72665</v>
       </c>
       <c r="K171" s="22">
-        <f>J171-I171</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L171" s="23" t="s">
@@ -13232,8 +13267,8 @@
       <c r="V171" s="16">
         <v>0</v>
       </c>
-      <c r="W171" s="57">
-        <f t="shared" si="3"/>
+      <c r="W171" s="49">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
     </row>
@@ -13250,7 +13285,7 @@
       <c r="E172" s="30">
         <v>45000</v>
       </c>
-      <c r="F172" s="55" t="s">
+      <c r="F172" s="47" t="s">
         <v>472</v>
       </c>
       <c r="G172" s="17" t="s">
@@ -13266,7 +13301,7 @@
         <v>236298</v>
       </c>
       <c r="K172" s="22">
-        <f>J172-I172</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="L172" s="23" t="s">
@@ -13302,8 +13337,8 @@
       <c r="V172" s="16">
         <v>100</v>
       </c>
-      <c r="W172" s="57">
-        <f t="shared" si="3"/>
+      <c r="W172" s="49">
+        <f t="shared" si="6"/>
         <v>5368</v>
       </c>
     </row>
@@ -13320,7 +13355,7 @@
       <c r="E173" s="30">
         <v>45001</v>
       </c>
-      <c r="F173" s="55" t="s">
+      <c r="F173" s="47" t="s">
         <v>473</v>
       </c>
       <c r="G173" s="17" t="s">
@@ -13336,7 +13371,7 @@
         <v>236400</v>
       </c>
       <c r="K173" s="22">
-        <f>J173-I173</f>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="L173" s="23">
@@ -13368,8 +13403,8 @@
       <c r="V173" s="16">
         <v>60</v>
       </c>
-      <c r="W173" s="57">
-        <f t="shared" si="3"/>
+      <c r="W173" s="49">
+        <f t="shared" si="6"/>
         <v>6780</v>
       </c>
     </row>
@@ -13386,7 +13421,7 @@
       <c r="E174" s="30">
         <v>45002</v>
       </c>
-      <c r="F174" s="55" t="s">
+      <c r="F174" s="47" t="s">
         <v>474</v>
       </c>
       <c r="G174" s="17" t="s">
@@ -13402,7 +13437,7 @@
         <v>236465</v>
       </c>
       <c r="K174" s="22">
-        <f>J174-I174</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="L174" s="23" t="s">
@@ -13430,8 +13465,8 @@
       <c r="V174" s="16">
         <v>0</v>
       </c>
-      <c r="W174" s="57">
-        <f t="shared" si="3"/>
+      <c r="W174" s="49">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
     </row>
@@ -13448,7 +13483,7 @@
       <c r="E175" s="30">
         <v>45002</v>
       </c>
-      <c r="F175" s="55" t="s">
+      <c r="F175" s="47" t="s">
         <v>475</v>
       </c>
       <c r="G175" s="17" t="s">
@@ -13464,7 +13499,7 @@
         <v>236642</v>
       </c>
       <c r="K175" s="22">
-        <f>J175-I175</f>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="L175" s="23" t="s">
@@ -13492,8 +13527,8 @@
       <c r="V175" s="16">
         <v>75</v>
       </c>
-      <c r="W175" s="57">
-        <f t="shared" si="3"/>
+      <c r="W175" s="49">
+        <f t="shared" si="6"/>
         <v>5075</v>
       </c>
     </row>
@@ -13510,7 +13545,7 @@
       <c r="E176" s="30">
         <v>45003</v>
       </c>
-      <c r="F176" s="55" t="s">
+      <c r="F176" s="47" t="s">
         <v>476</v>
       </c>
       <c r="G176" s="17" t="s">
@@ -13526,7 +13561,7 @@
         <v>236680</v>
       </c>
       <c r="K176" s="22">
-        <f>J176-I176</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L176" s="23" t="s">
@@ -13554,8 +13589,8 @@
       <c r="V176" s="16">
         <v>0</v>
       </c>
-      <c r="W176" s="57">
-        <f t="shared" si="3"/>
+      <c r="W176" s="49">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
     </row>
@@ -13572,7 +13607,7 @@
       <c r="E177" s="30">
         <v>45001</v>
       </c>
-      <c r="F177" s="55" t="s">
+      <c r="F177" s="47" t="s">
         <v>477</v>
       </c>
       <c r="G177" s="17" t="s">
@@ -13588,7 +13623,7 @@
         <v>7068</v>
       </c>
       <c r="K177" s="22">
-        <f>J177-I177</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L177" s="23" t="s">
@@ -13616,8 +13651,8 @@
       <c r="V177" s="16">
         <v>0</v>
       </c>
-      <c r="W177" s="57">
-        <f t="shared" si="3"/>
+      <c r="W177" s="49">
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="X177" s="1" t="s">
@@ -13637,7 +13672,7 @@
       <c r="E178" s="30">
         <v>45002</v>
       </c>
-      <c r="F178" s="55" t="s">
+      <c r="F178" s="47" t="s">
         <v>478</v>
       </c>
       <c r="G178" s="17" t="s">
@@ -13653,7 +13688,7 @@
         <v>249182</v>
       </c>
       <c r="K178" s="22">
-        <f>J178-I178</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="L178" s="23" t="s">
@@ -13685,8 +13720,8 @@
       <c r="V178" s="16">
         <v>0</v>
       </c>
-      <c r="W178" s="57">
-        <f t="shared" si="3"/>
+      <c r="W178" s="49">
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
     </row>
@@ -13703,7 +13738,7 @@
       <c r="E179" s="30">
         <v>45003</v>
       </c>
-      <c r="F179" s="55" t="s">
+      <c r="F179" s="47" t="s">
         <v>479</v>
       </c>
       <c r="G179" s="17" t="s">
@@ -13719,7 +13754,7 @@
         <v>249222</v>
       </c>
       <c r="K179" s="22">
-        <f>J179-I179</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L179" s="23" t="s">
@@ -13751,8 +13786,8 @@
       <c r="V179" s="16">
         <v>0</v>
       </c>
-      <c r="W179" s="57">
-        <f t="shared" si="3"/>
+      <c r="W179" s="49">
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
     </row>
@@ -13769,7 +13804,7 @@
       <c r="E180" s="30">
         <v>45001</v>
       </c>
-      <c r="F180" s="55" t="s">
+      <c r="F180" s="47" t="s">
         <v>480</v>
       </c>
       <c r="G180" s="17" t="s">
@@ -13785,7 +13820,7 @@
         <v>160558</v>
       </c>
       <c r="K180" s="22">
-        <f>J180-I180</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L180" s="23">
@@ -13813,8 +13848,8 @@
       <c r="V180" s="16">
         <v>100</v>
       </c>
-      <c r="W180" s="57">
-        <f t="shared" si="3"/>
+      <c r="W180" s="49">
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
     </row>
@@ -13831,7 +13866,7 @@
       <c r="E181" s="30">
         <v>45002</v>
       </c>
-      <c r="F181" s="55" t="s">
+      <c r="F181" s="47" t="s">
         <v>481</v>
       </c>
       <c r="G181" s="17" t="s">
@@ -13847,7 +13882,7 @@
         <v>160627</v>
       </c>
       <c r="K181" s="22">
-        <f>J181-I181</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="L181" s="23">
@@ -13881,8 +13916,8 @@
       <c r="V181" s="16">
         <v>0</v>
       </c>
-      <c r="W181" s="57">
-        <f t="shared" si="3"/>
+      <c r="W181" s="49">
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
     </row>
@@ -13899,7 +13934,7 @@
       <c r="E182" s="30">
         <v>45001</v>
       </c>
-      <c r="F182" s="55" t="s">
+      <c r="F182" s="47" t="s">
         <v>482</v>
       </c>
       <c r="G182" s="17" t="s">
@@ -13915,7 +13950,7 @@
         <v>14655</v>
       </c>
       <c r="K182" s="22">
-        <f>J182-I182</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="L182" s="23">
@@ -13943,8 +13978,8 @@
       <c r="V182" s="16">
         <v>0</v>
       </c>
-      <c r="W182" s="57">
-        <f t="shared" si="3"/>
+      <c r="W182" s="49">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
@@ -13961,7 +13996,7 @@
       <c r="E183" s="30">
         <v>45000</v>
       </c>
-      <c r="F183" s="55" t="s">
+      <c r="F183" s="47" t="s">
         <v>483</v>
       </c>
       <c r="G183" s="17" t="s">
@@ -13977,7 +14012,7 @@
         <v>6319</v>
       </c>
       <c r="K183" s="22">
-        <f>J183-I183</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L183" s="23" t="s">
@@ -14005,8 +14040,8 @@
       <c r="V183" s="16">
         <v>0</v>
       </c>
-      <c r="W183" s="57">
-        <f t="shared" si="3"/>
+      <c r="W183" s="49">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="X183" s="1" t="s">
@@ -14026,7 +14061,7 @@
       <c r="E184" s="30">
         <v>45000</v>
       </c>
-      <c r="F184" s="55" t="s">
+      <c r="F184" s="47" t="s">
         <v>484</v>
       </c>
       <c r="G184" s="17" t="s">
@@ -14042,7 +14077,7 @@
         <v>189546</v>
       </c>
       <c r="K184" s="22">
-        <f>J184-I184</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="L184" s="23" t="s">
@@ -14070,8 +14105,8 @@
       <c r="V184" s="16">
         <v>75</v>
       </c>
-      <c r="W184" s="57">
-        <f t="shared" si="3"/>
+      <c r="W184" s="49">
+        <f t="shared" si="6"/>
         <v>1075</v>
       </c>
     </row>
@@ -14088,7 +14123,7 @@
       <c r="E185" s="30">
         <v>45001</v>
       </c>
-      <c r="F185" s="55" t="s">
+      <c r="F185" s="47" t="s">
         <v>485</v>
       </c>
       <c r="G185" s="17" t="s">
@@ -14104,7 +14139,7 @@
         <v>189632</v>
       </c>
       <c r="K185" s="22">
-        <f>J185-I185</f>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="L185" s="23" t="s">
@@ -14136,8 +14171,8 @@
       <c r="V185" s="16">
         <v>0</v>
       </c>
-      <c r="W185" s="57">
-        <f t="shared" si="3"/>
+      <c r="W185" s="49">
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
     </row>
@@ -14154,7 +14189,7 @@
       <c r="E186" s="30">
         <v>45002</v>
       </c>
-      <c r="F186" s="55" t="s">
+      <c r="F186" s="47" t="s">
         <v>486</v>
       </c>
       <c r="G186" s="17" t="s">
@@ -14170,7 +14205,7 @@
         <v>189745</v>
       </c>
       <c r="K186" s="22">
-        <f>J186-I186</f>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="L186" s="23" t="s">
@@ -14202,8 +14237,8 @@
       <c r="V186" s="16">
         <v>66</v>
       </c>
-      <c r="W186" s="57">
-        <f t="shared" si="3"/>
+      <c r="W186" s="49">
+        <f t="shared" si="6"/>
         <v>3666</v>
       </c>
     </row>
@@ -14220,7 +14255,7 @@
       <c r="E187" s="30">
         <v>45003</v>
       </c>
-      <c r="F187" s="55" t="s">
+      <c r="F187" s="47" t="s">
         <v>487</v>
       </c>
       <c r="G187" s="17" t="s">
@@ -14236,7 +14271,7 @@
         <v>189853</v>
       </c>
       <c r="K187" s="22">
-        <f>J187-I187</f>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="L187" s="23" t="s">
@@ -14268,8 +14303,8 @@
       <c r="V187" s="16">
         <v>0</v>
       </c>
-      <c r="W187" s="57">
-        <f t="shared" si="3"/>
+      <c r="W187" s="49">
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
     </row>
@@ -14286,7 +14321,7 @@
       <c r="E188" s="30">
         <v>45004</v>
       </c>
-      <c r="F188" s="55" t="s">
+      <c r="F188" s="47" t="s">
         <v>488</v>
       </c>
       <c r="G188" s="17" t="s">
@@ -14302,7 +14337,7 @@
         <v>189892</v>
       </c>
       <c r="K188" s="22">
-        <f>J188-I188</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L188" s="23" t="s">
@@ -14330,8 +14365,8 @@
       <c r="V188" s="16">
         <v>0</v>
       </c>
-      <c r="W188" s="57">
-        <f t="shared" si="3"/>
+      <c r="W188" s="49">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
@@ -14348,7 +14383,7 @@
       <c r="E189" s="30">
         <v>45000</v>
       </c>
-      <c r="F189" s="55" t="s">
+      <c r="F189" s="47" t="s">
         <v>489</v>
       </c>
       <c r="G189" s="17" t="s">
@@ -14364,7 +14399,7 @@
         <v>148343</v>
       </c>
       <c r="K189" s="22">
-        <f>J189-I189</f>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="L189" s="23" t="s">
@@ -14396,8 +14431,8 @@
       <c r="V189" s="16">
         <v>0</v>
       </c>
-      <c r="W189" s="57">
-        <f t="shared" si="3"/>
+      <c r="W189" s="49">
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
     </row>
@@ -14414,7 +14449,7 @@
       <c r="E190" s="30">
         <v>45001</v>
       </c>
-      <c r="F190" s="55" t="s">
+      <c r="F190" s="47" t="s">
         <v>490</v>
       </c>
       <c r="G190" s="17" t="s">
@@ -14430,7 +14465,7 @@
         <v>148391</v>
       </c>
       <c r="K190" s="22">
-        <f>J190-I190</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="L190" s="23">
@@ -14458,8 +14493,8 @@
       <c r="V190" s="16">
         <v>0</v>
       </c>
-      <c r="W190" s="57">
-        <f t="shared" si="3"/>
+      <c r="W190" s="49">
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
@@ -14476,7 +14511,7 @@
       <c r="E191" s="30">
         <v>45000</v>
       </c>
-      <c r="F191" s="55" t="s">
+      <c r="F191" s="47" t="s">
         <v>491</v>
       </c>
       <c r="G191" s="17" t="s">
@@ -14492,7 +14527,7 @@
         <v>250163</v>
       </c>
       <c r="K191" s="22">
-        <f>J191-I191</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="L191" s="23" t="s">
@@ -14520,8 +14555,8 @@
       <c r="V191" s="16">
         <v>0</v>
       </c>
-      <c r="W191" s="57">
-        <f t="shared" si="3"/>
+      <c r="W191" s="49">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
@@ -14538,7 +14573,7 @@
       <c r="E192" s="30">
         <v>45001</v>
       </c>
-      <c r="F192" s="55" t="s">
+      <c r="F192" s="47" t="s">
         <v>492</v>
       </c>
       <c r="G192" s="17" t="s">
@@ -14554,7 +14589,7 @@
         <v>250265</v>
       </c>
       <c r="K192" s="22">
-        <f>J192-I192</f>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="L192" s="23" t="s">
@@ -14586,8 +14621,8 @@
       <c r="V192" s="16">
         <v>0</v>
       </c>
-      <c r="W192" s="57">
-        <f t="shared" si="3"/>
+      <c r="W192" s="49">
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
     </row>
@@ -14604,7 +14639,7 @@
       <c r="E193" s="30">
         <v>45002</v>
       </c>
-      <c r="F193" s="55" t="s">
+      <c r="F193" s="47" t="s">
         <v>493</v>
       </c>
       <c r="G193" s="17" t="s">
@@ -14620,7 +14655,7 @@
         <v>250352</v>
       </c>
       <c r="K193" s="22">
-        <f>J193-I193</f>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="L193" s="23" t="s">
@@ -14652,8 +14687,8 @@
       <c r="V193" s="16">
         <v>0</v>
       </c>
-      <c r="W193" s="57">
-        <f t="shared" si="3"/>
+      <c r="W193" s="49">
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
     </row>
@@ -14670,7 +14705,7 @@
       <c r="E194" s="30">
         <v>45000</v>
       </c>
-      <c r="F194" s="55" t="s">
+      <c r="F194" s="47" t="s">
         <v>494</v>
       </c>
       <c r="G194" s="17" t="s">
@@ -14686,7 +14721,7 @@
         <v>170682</v>
       </c>
       <c r="K194" s="22">
-        <f>J194-I194</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="L194" s="23" t="s">
@@ -14718,8 +14753,8 @@
       <c r="V194" s="16">
         <v>0</v>
       </c>
-      <c r="W194" s="57">
-        <f t="shared" si="3"/>
+      <c r="W194" s="49">
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
     </row>
@@ -14736,7 +14771,7 @@
       <c r="E195" s="30">
         <v>45001</v>
       </c>
-      <c r="F195" s="55" t="s">
+      <c r="F195" s="47" t="s">
         <v>495</v>
       </c>
       <c r="G195" s="17" t="s">
@@ -14752,7 +14787,7 @@
         <v>170797</v>
       </c>
       <c r="K195" s="22">
-        <f>J195-I195</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="L195" s="23" t="s">
@@ -14786,8 +14821,8 @@
       <c r="V195" s="16">
         <v>0</v>
       </c>
-      <c r="W195" s="57">
-        <f t="shared" si="3"/>
+      <c r="W195" s="49">
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
     </row>
@@ -14804,7 +14839,7 @@
       <c r="E196" s="30">
         <v>45002</v>
       </c>
-      <c r="F196" s="55" t="s">
+      <c r="F196" s="47" t="s">
         <v>496</v>
       </c>
       <c r="G196" s="17" t="s">
@@ -14820,7 +14855,7 @@
         <v>170862</v>
       </c>
       <c r="K196" s="22">
-        <f>J196-I196</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="L196" s="23" t="s">
@@ -14852,8 +14887,8 @@
       <c r="V196" s="16">
         <v>0</v>
       </c>
-      <c r="W196" s="57">
-        <f t="shared" si="3"/>
+      <c r="W196" s="49">
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
     </row>
@@ -14870,7 +14905,7 @@
       <c r="E197" s="30">
         <v>45000</v>
       </c>
-      <c r="F197" s="55" t="s">
+      <c r="F197" s="47" t="s">
         <v>497</v>
       </c>
       <c r="G197" s="17" t="s">
@@ -14886,7 +14921,7 @@
         <v>213085</v>
       </c>
       <c r="K197" s="22">
-        <f>J197-I197</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L197" s="23" t="s">
@@ -14914,8 +14949,8 @@
       <c r="V197" s="16">
         <v>100</v>
       </c>
-      <c r="W197" s="57">
-        <f t="shared" si="3"/>
+      <c r="W197" s="49">
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="X197" s="1" t="s">
@@ -14935,7 +14970,7 @@
       <c r="E198" s="30">
         <v>45000</v>
       </c>
-      <c r="F198" s="55" t="s">
+      <c r="F198" s="47" t="s">
         <v>498</v>
       </c>
       <c r="G198" s="17" t="s">
@@ -14951,7 +14986,7 @@
         <v>213175</v>
       </c>
       <c r="K198" s="22">
-        <f>J198-I198</f>
+        <f t="shared" ref="K198:K262" si="7">J198-I198</f>
         <v>90</v>
       </c>
       <c r="L198" s="23" t="s">
@@ -14983,8 +15018,8 @@
       <c r="V198" s="16">
         <v>75</v>
       </c>
-      <c r="W198" s="57">
-        <f t="shared" si="3"/>
+      <c r="W198" s="49">
+        <f t="shared" si="6"/>
         <v>2275</v>
       </c>
     </row>
@@ -15001,7 +15036,7 @@
       <c r="E199" s="30">
         <v>45001</v>
       </c>
-      <c r="F199" s="55" t="s">
+      <c r="F199" s="47" t="s">
         <v>499</v>
       </c>
       <c r="G199" s="17" t="s">
@@ -15017,7 +15052,7 @@
         <v>213257</v>
       </c>
       <c r="K199" s="22">
-        <f>J199-I199</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="L199" s="23" t="s">
@@ -15049,8 +15084,8 @@
       <c r="V199" s="16">
         <v>0</v>
       </c>
-      <c r="W199" s="57">
-        <f t="shared" si="3"/>
+      <c r="W199" s="49">
+        <f t="shared" si="6"/>
         <v>3400</v>
       </c>
     </row>
@@ -15067,7 +15102,7 @@
       <c r="E200" s="30">
         <v>45002</v>
       </c>
-      <c r="F200" s="55" t="s">
+      <c r="F200" s="47" t="s">
         <v>500</v>
       </c>
       <c r="G200" s="17" t="s">
@@ -15083,7 +15118,7 @@
         <v>213362</v>
       </c>
       <c r="K200" s="22">
-        <f>J200-I200</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="L200" s="23" t="s">
@@ -15115,8 +15150,8 @@
       <c r="V200" s="16">
         <v>0</v>
       </c>
-      <c r="W200" s="57">
-        <f t="shared" ref="W200:W242" si="4">SUM(T200:V200)</f>
+      <c r="W200" s="49">
+        <f t="shared" ref="W200:W242" si="8">SUM(T200:V200)</f>
         <v>3600</v>
       </c>
     </row>
@@ -15133,7 +15168,7 @@
       <c r="E201" s="30">
         <v>45003</v>
       </c>
-      <c r="F201" s="55" t="s">
+      <c r="F201" s="47" t="s">
         <v>501</v>
       </c>
       <c r="G201" s="17" t="s">
@@ -15149,7 +15184,7 @@
         <v>213421</v>
       </c>
       <c r="K201" s="22">
-        <f>J201-I201</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="L201" s="23" t="s">
@@ -15177,8 +15212,8 @@
       <c r="V201" s="16">
         <v>0</v>
       </c>
-      <c r="W201" s="57">
-        <f t="shared" si="4"/>
+      <c r="W201" s="49">
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -15195,7 +15230,7 @@
       <c r="E202" s="30">
         <v>45000</v>
       </c>
-      <c r="F202" s="55" t="s">
+      <c r="F202" s="47" t="s">
         <v>502</v>
       </c>
       <c r="G202" s="17" t="s">
@@ -15211,7 +15246,7 @@
         <v>251832</v>
       </c>
       <c r="K202" s="22">
-        <f>J202-I202</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="L202" s="23" t="s">
@@ -15243,8 +15278,8 @@
       <c r="V202" s="16">
         <v>40</v>
       </c>
-      <c r="W202" s="57">
-        <f t="shared" si="4"/>
+      <c r="W202" s="49">
+        <f t="shared" si="8"/>
         <v>3440</v>
       </c>
     </row>
@@ -15261,7 +15296,7 @@
       <c r="E203" s="30">
         <v>45001</v>
       </c>
-      <c r="F203" s="55" t="s">
+      <c r="F203" s="47" t="s">
         <v>503</v>
       </c>
       <c r="G203" s="17" t="s">
@@ -15277,7 +15312,7 @@
         <v>251927</v>
       </c>
       <c r="K203" s="22">
-        <f>J203-I203</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="L203" s="23" t="s">
@@ -15309,8 +15344,8 @@
       <c r="V203" s="16">
         <v>0</v>
       </c>
-      <c r="W203" s="57">
-        <f t="shared" si="4"/>
+      <c r="W203" s="49">
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
     </row>
@@ -15327,7 +15362,7 @@
       <c r="E204" s="30">
         <v>45002</v>
       </c>
-      <c r="F204" s="55" t="s">
+      <c r="F204" s="47" t="s">
         <v>504</v>
       </c>
       <c r="G204" s="17" t="s">
@@ -15343,7 +15378,7 @@
         <v>252001</v>
       </c>
       <c r="K204" s="22">
-        <f>J204-I204</f>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="L204" s="23" t="s">
@@ -15375,8 +15410,8 @@
       <c r="V204" s="16">
         <v>0</v>
       </c>
-      <c r="W204" s="57">
-        <f t="shared" si="4"/>
+      <c r="W204" s="49">
+        <f t="shared" si="8"/>
         <v>2200</v>
       </c>
     </row>
@@ -15393,7 +15428,7 @@
       <c r="E205" s="30">
         <v>45000</v>
       </c>
-      <c r="F205" s="55" t="s">
+      <c r="F205" s="47" t="s">
         <v>505</v>
       </c>
       <c r="G205" s="17" t="s">
@@ -15409,7 +15444,7 @@
         <v>160597</v>
       </c>
       <c r="K205" s="22">
-        <f>J205-I205</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="L205" s="23" t="s">
@@ -15441,8 +15476,8 @@
       <c r="V205" s="16">
         <v>0</v>
       </c>
-      <c r="W205" s="57">
-        <f t="shared" si="4"/>
+      <c r="W205" s="49">
+        <f t="shared" si="8"/>
         <v>3200</v>
       </c>
     </row>
@@ -15459,7 +15494,7 @@
       <c r="E206" s="30">
         <v>45001</v>
       </c>
-      <c r="F206" s="55" t="s">
+      <c r="F206" s="47" t="s">
         <v>506</v>
       </c>
       <c r="G206" s="17" t="s">
@@ -15475,7 +15510,7 @@
         <v>160712</v>
       </c>
       <c r="K206" s="22">
-        <f>J206-I206</f>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="L206" s="23" t="s">
@@ -15507,8 +15542,8 @@
       <c r="V206" s="16">
         <v>0</v>
       </c>
-      <c r="W206" s="57">
-        <f t="shared" si="4"/>
+      <c r="W206" s="49">
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
     </row>
@@ -15525,7 +15560,7 @@
       <c r="E207" s="30">
         <v>45002</v>
       </c>
-      <c r="F207" s="55" t="s">
+      <c r="F207" s="47" t="s">
         <v>507</v>
       </c>
       <c r="G207" s="17" t="s">
@@ -15541,7 +15576,7 @@
         <v>160907</v>
       </c>
       <c r="K207" s="22">
-        <f>J207-I207</f>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="L207" s="23" t="s">
@@ -15573,8 +15608,8 @@
       <c r="V207" s="16">
         <v>0</v>
       </c>
-      <c r="W207" s="57">
-        <f t="shared" si="4"/>
+      <c r="W207" s="49">
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
     </row>
@@ -15591,7 +15626,7 @@
       <c r="E208" s="30">
         <v>45003</v>
       </c>
-      <c r="F208" s="55" t="s">
+      <c r="F208" s="47" t="s">
         <v>508</v>
       </c>
       <c r="G208" s="17" t="s">
@@ -15607,7 +15642,7 @@
         <v>160960</v>
       </c>
       <c r="K208" s="22">
-        <f>J208-I208</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="L208" s="23">
@@ -15635,8 +15670,8 @@
       <c r="V208" s="16">
         <v>0</v>
       </c>
-      <c r="W208" s="57">
-        <f t="shared" si="4"/>
+      <c r="W208" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -15653,7 +15688,7 @@
       <c r="E209" s="30">
         <v>45000</v>
       </c>
-      <c r="F209" s="55" t="s">
+      <c r="F209" s="47" t="s">
         <v>509</v>
       </c>
       <c r="G209" s="17" t="s">
@@ -15669,7 +15704,7 @@
         <v>196972</v>
       </c>
       <c r="K209" s="22">
-        <f>J209-I209</f>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="L209" s="23" t="s">
@@ -15701,8 +15736,8 @@
       <c r="V209" s="16">
         <v>40</v>
       </c>
-      <c r="W209" s="57">
-        <f t="shared" si="4"/>
+      <c r="W209" s="49">
+        <f t="shared" si="8"/>
         <v>3640</v>
       </c>
     </row>
@@ -15719,7 +15754,7 @@
       <c r="E210" s="30">
         <v>45001</v>
       </c>
-      <c r="F210" s="55" t="s">
+      <c r="F210" s="47" t="s">
         <v>510</v>
       </c>
       <c r="G210" s="17" t="s">
@@ -15735,7 +15770,7 @@
         <v>197067</v>
       </c>
       <c r="K210" s="22">
-        <f>J210-I210</f>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="L210" s="23" t="s">
@@ -15767,8 +15802,8 @@
       <c r="V210" s="16">
         <v>0</v>
       </c>
-      <c r="W210" s="57">
-        <f t="shared" si="4"/>
+      <c r="W210" s="49">
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
     </row>
@@ -15785,7 +15820,7 @@
       <c r="E211" s="30">
         <v>45002</v>
       </c>
-      <c r="F211" s="55" t="s">
+      <c r="F211" s="47" t="s">
         <v>511</v>
       </c>
       <c r="G211" s="17" t="s">
@@ -15801,7 +15836,7 @@
         <v>197158</v>
       </c>
       <c r="K211" s="22">
-        <f>J211-I211</f>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="L211" s="23" t="s">
@@ -15833,8 +15868,8 @@
       <c r="V211" s="16">
         <v>0</v>
       </c>
-      <c r="W211" s="57">
-        <f t="shared" si="4"/>
+      <c r="W211" s="49">
+        <f t="shared" si="8"/>
         <v>4000</v>
       </c>
     </row>
@@ -15851,7 +15886,7 @@
       <c r="E212" s="30">
         <v>45003</v>
       </c>
-      <c r="F212" s="55" t="s">
+      <c r="F212" s="47" t="s">
         <v>512</v>
       </c>
       <c r="G212" s="17" t="s">
@@ -15867,7 +15902,7 @@
         <v>197250</v>
       </c>
       <c r="K212" s="22">
-        <f>J212-I212</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="L212" s="23" t="s">
@@ -15899,8 +15934,8 @@
       <c r="V212" s="16">
         <v>0</v>
       </c>
-      <c r="W212" s="57">
-        <f t="shared" si="4"/>
+      <c r="W212" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -15917,7 +15952,7 @@
       <c r="E213" s="30">
         <v>45000</v>
       </c>
-      <c r="F213" s="55" t="s">
+      <c r="F213" s="47" t="s">
         <v>513</v>
       </c>
       <c r="G213" s="17" t="s">
@@ -15933,7 +15968,7 @@
         <v>77775</v>
       </c>
       <c r="K213" s="22">
-        <f>J213-I213</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="L213" s="23" t="s">
@@ -15965,8 +16000,8 @@
       <c r="V213" s="16">
         <v>40</v>
       </c>
-      <c r="W213" s="57">
-        <f t="shared" si="4"/>
+      <c r="W213" s="49">
+        <f t="shared" si="8"/>
         <v>3240</v>
       </c>
     </row>
@@ -15983,7 +16018,7 @@
       <c r="E214" s="30">
         <v>45001</v>
       </c>
-      <c r="F214" s="55" t="s">
+      <c r="F214" s="47" t="s">
         <v>514</v>
       </c>
       <c r="G214" s="17" t="s">
@@ -15999,7 +16034,7 @@
         <v>77882</v>
       </c>
       <c r="K214" s="22">
-        <f>J214-I214</f>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="L214" s="23" t="s">
@@ -16031,8 +16066,8 @@
       <c r="V214" s="16">
         <v>0</v>
       </c>
-      <c r="W214" s="57">
-        <f t="shared" si="4"/>
+      <c r="W214" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -16049,7 +16084,7 @@
       <c r="E215" s="30">
         <v>45002</v>
       </c>
-      <c r="F215" s="55" t="s">
+      <c r="F215" s="47" t="s">
         <v>515</v>
       </c>
       <c r="G215" s="17" t="s">
@@ -16065,7 +16100,7 @@
         <v>77997</v>
       </c>
       <c r="K215" s="22">
-        <f>J215-I215</f>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="L215" s="23" t="s">
@@ -16097,8 +16132,8 @@
       <c r="V215" s="16">
         <v>0</v>
       </c>
-      <c r="W215" s="57">
-        <f t="shared" si="4"/>
+      <c r="W215" s="49">
+        <f t="shared" si="8"/>
         <v>3400</v>
       </c>
     </row>
@@ -16115,7 +16150,7 @@
       <c r="E216" s="30">
         <v>45003</v>
       </c>
-      <c r="F216" s="55" t="s">
+      <c r="F216" s="47" t="s">
         <v>516</v>
       </c>
       <c r="G216" s="17" t="s">
@@ -16131,7 +16166,7 @@
         <v>78099</v>
       </c>
       <c r="K216" s="22">
-        <f>J216-I216</f>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="L216" s="23" t="s">
@@ -16163,8 +16198,8 @@
       <c r="V216" s="16">
         <v>0</v>
       </c>
-      <c r="W216" s="57">
-        <f t="shared" si="4"/>
+      <c r="W216" s="49">
+        <f t="shared" si="8"/>
         <v>3400</v>
       </c>
     </row>
@@ -16181,7 +16216,7 @@
       <c r="E217" s="30">
         <v>45004</v>
       </c>
-      <c r="F217" s="55" t="s">
+      <c r="F217" s="47" t="s">
         <v>517</v>
       </c>
       <c r="G217" s="17" t="s">
@@ -16197,7 +16232,7 @@
         <v>78147</v>
       </c>
       <c r="K217" s="22">
-        <f>J217-I217</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="L217" s="23" t="s">
@@ -16225,8 +16260,8 @@
       <c r="V217" s="16">
         <v>0</v>
       </c>
-      <c r="W217" s="57">
-        <f t="shared" si="4"/>
+      <c r="W217" s="49">
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
@@ -16243,7 +16278,7 @@
       <c r="E218" s="30">
         <v>45000</v>
       </c>
-      <c r="F218" s="55" t="s">
+      <c r="F218" s="47" t="s">
         <v>518</v>
       </c>
       <c r="G218" s="17" t="s">
@@ -16259,7 +16294,7 @@
         <v>258170</v>
       </c>
       <c r="K218" s="22">
-        <f>J218-I218</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="L218" s="40">
@@ -16287,8 +16322,8 @@
       <c r="V218" s="16">
         <v>75</v>
       </c>
-      <c r="W218" s="57">
-        <f t="shared" si="4"/>
+      <c r="W218" s="49">
+        <f t="shared" si="8"/>
         <v>1075</v>
       </c>
     </row>
@@ -16305,7 +16340,7 @@
       <c r="E219" s="30">
         <v>45001</v>
       </c>
-      <c r="F219" s="55" t="s">
+      <c r="F219" s="47" t="s">
         <v>519</v>
       </c>
       <c r="G219" s="17" t="s">
@@ -16321,7 +16356,7 @@
         <v>258215</v>
       </c>
       <c r="K219" s="22">
-        <f>J219-I219</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="L219" s="23" t="s">
@@ -16353,8 +16388,8 @@
       <c r="V219" s="16">
         <v>0</v>
       </c>
-      <c r="W219" s="57">
-        <f t="shared" si="4"/>
+      <c r="W219" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -16371,7 +16406,7 @@
       <c r="E220" s="30">
         <v>45002</v>
       </c>
-      <c r="F220" s="55" t="s">
+      <c r="F220" s="47" t="s">
         <v>520</v>
       </c>
       <c r="G220" s="17" t="s">
@@ -16387,7 +16422,7 @@
         <v>258297</v>
       </c>
       <c r="K220" s="22">
-        <f>J220-I220</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="L220" s="23" t="s">
@@ -16419,8 +16454,8 @@
       <c r="V220" s="16">
         <v>0</v>
       </c>
-      <c r="W220" s="57">
-        <f t="shared" si="4"/>
+      <c r="W220" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -16437,7 +16472,7 @@
       <c r="E221" s="30">
         <v>45003</v>
       </c>
-      <c r="F221" s="55" t="s">
+      <c r="F221" s="47" t="s">
         <v>521</v>
       </c>
       <c r="G221" s="17" t="s">
@@ -16453,7 +16488,7 @@
         <v>258332</v>
       </c>
       <c r="K221" s="22">
-        <f>J221-I221</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="L221" s="23" t="s">
@@ -16481,8 +16516,8 @@
       <c r="V221" s="16">
         <v>0</v>
       </c>
-      <c r="W221" s="57">
-        <f t="shared" si="4"/>
+      <c r="W221" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -16499,7 +16534,7 @@
       <c r="E222" s="30">
         <v>45001</v>
       </c>
-      <c r="F222" s="55" t="s">
+      <c r="F222" s="47" t="s">
         <v>522</v>
       </c>
       <c r="G222" s="17" t="s">
@@ -16515,7 +16550,7 @@
         <v>4242</v>
       </c>
       <c r="K222" s="22">
-        <f>J222-I222</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="L222" s="23" t="s">
@@ -16543,8 +16578,8 @@
       <c r="V222" s="16">
         <v>100</v>
       </c>
-      <c r="W222" s="57">
-        <f t="shared" si="4"/>
+      <c r="W222" s="49">
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
     </row>
@@ -16561,7 +16596,7 @@
       <c r="E223" s="30">
         <v>45002</v>
       </c>
-      <c r="F223" s="55" t="s">
+      <c r="F223" s="47" t="s">
         <v>523</v>
       </c>
       <c r="G223" s="17" t="s">
@@ -16577,7 +16612,7 @@
         <v>4312</v>
       </c>
       <c r="K223" s="22">
-        <f>J223-I223</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="L223" s="23" t="s">
@@ -16607,8 +16642,8 @@
       <c r="V223" s="16">
         <v>0</v>
       </c>
-      <c r="W223" s="57">
-        <f t="shared" si="4"/>
+      <c r="W223" s="49">
+        <f t="shared" si="8"/>
         <v>3400</v>
       </c>
     </row>
@@ -16625,7 +16660,7 @@
       <c r="E224" s="30">
         <v>45003</v>
       </c>
-      <c r="F224" s="55" t="s">
+      <c r="F224" s="47" t="s">
         <v>524</v>
       </c>
       <c r="G224" s="17" t="s">
@@ -16641,7 +16676,7 @@
         <v>170944</v>
       </c>
       <c r="K224" s="22">
-        <f>J224-I224</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="L224" s="23" t="s">
@@ -16671,8 +16706,8 @@
       <c r="V224" s="16">
         <v>0</v>
       </c>
-      <c r="W224" s="57">
-        <f t="shared" si="4"/>
+      <c r="W224" s="49">
+        <f t="shared" si="8"/>
         <v>3400</v>
       </c>
     </row>
@@ -16689,7 +16724,7 @@
       <c r="E225" s="30">
         <v>45004</v>
       </c>
-      <c r="F225" s="55" t="s">
+      <c r="F225" s="47" t="s">
         <v>525</v>
       </c>
       <c r="G225" s="17" t="s">
@@ -16705,7 +16740,7 @@
         <v>171009</v>
       </c>
       <c r="K225" s="22">
-        <f>J225-I225</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="L225" s="23" t="s">
@@ -16735,8 +16770,8 @@
       <c r="V225" s="16">
         <v>0</v>
       </c>
-      <c r="W225" s="57">
-        <f t="shared" si="4"/>
+      <c r="W225" s="49">
+        <f t="shared" si="8"/>
         <v>3200</v>
       </c>
     </row>
@@ -16753,7 +16788,7 @@
       <c r="E226" s="30">
         <v>45001</v>
       </c>
-      <c r="F226" s="55" t="s">
+      <c r="F226" s="47" t="s">
         <v>526</v>
       </c>
       <c r="G226" s="17" t="s">
@@ -16769,7 +16804,7 @@
         <v>50247</v>
       </c>
       <c r="K226" s="22">
-        <f>J226-I226</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="L226" s="23">
@@ -16797,8 +16832,8 @@
       <c r="V226" s="16">
         <v>0</v>
       </c>
-      <c r="W226" s="57">
-        <f t="shared" si="4"/>
+      <c r="W226" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -16815,7 +16850,7 @@
       <c r="E227" s="30">
         <v>45001</v>
       </c>
-      <c r="F227" s="55" t="s">
+      <c r="F227" s="47" t="s">
         <v>527</v>
       </c>
       <c r="G227" s="17" t="s">
@@ -16831,7 +16866,7 @@
         <v>190610</v>
       </c>
       <c r="K227" s="22">
-        <f>J227-I227</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="L227" s="23" t="s">
@@ -16859,8 +16894,8 @@
       <c r="V227" s="16">
         <v>0</v>
       </c>
-      <c r="W227" s="57">
-        <f t="shared" si="4"/>
+      <c r="W227" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -16877,7 +16912,7 @@
       <c r="E228" s="30">
         <v>45002</v>
       </c>
-      <c r="F228" s="55" t="s">
+      <c r="F228" s="47" t="s">
         <v>528</v>
       </c>
       <c r="G228" s="17" t="s">
@@ -16893,7 +16928,7 @@
         <v>190702</v>
       </c>
       <c r="K228" s="22">
-        <f>J228-I228</f>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="L228" s="23" t="s">
@@ -16923,8 +16958,8 @@
       <c r="V228" s="16">
         <v>0</v>
       </c>
-      <c r="W228" s="57">
-        <f t="shared" si="4"/>
+      <c r="W228" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -16941,7 +16976,7 @@
       <c r="E229" s="30">
         <v>45003</v>
       </c>
-      <c r="F229" s="55" t="s">
+      <c r="F229" s="47" t="s">
         <v>529</v>
       </c>
       <c r="G229" s="17" t="s">
@@ -16957,7 +16992,7 @@
         <v>190784</v>
       </c>
       <c r="K229" s="22">
-        <f>J229-I229</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="L229" s="23">
@@ -16987,8 +17022,8 @@
       <c r="V229" s="16">
         <v>0</v>
       </c>
-      <c r="W229" s="57">
-        <f t="shared" si="4"/>
+      <c r="W229" s="49">
+        <f t="shared" si="8"/>
         <v>2600</v>
       </c>
     </row>
@@ -17005,7 +17040,7 @@
       <c r="E230" s="30">
         <v>45001</v>
       </c>
-      <c r="F230" s="55" t="s">
+      <c r="F230" s="47" t="s">
         <v>530</v>
       </c>
       <c r="G230" s="17" t="s">
@@ -17021,7 +17056,7 @@
         <v>130736</v>
       </c>
       <c r="K230" s="22">
-        <f>J230-I230</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="L230" s="23" t="s">
@@ -17049,8 +17084,8 @@
       <c r="V230" s="16">
         <v>40</v>
       </c>
-      <c r="W230" s="57">
-        <f t="shared" si="4"/>
+      <c r="W230" s="49">
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
     </row>
@@ -17067,7 +17102,7 @@
       <c r="E231" s="30">
         <v>45002</v>
       </c>
-      <c r="F231" s="55" t="s">
+      <c r="F231" s="47" t="s">
         <v>531</v>
       </c>
       <c r="G231" s="17" t="s">
@@ -17083,7 +17118,7 @@
         <v>130821</v>
       </c>
       <c r="K231" s="22">
-        <f>J231-I231</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="L231" s="23" t="s">
@@ -17113,8 +17148,8 @@
       <c r="V231" s="16">
         <v>0</v>
       </c>
-      <c r="W231" s="57">
-        <f t="shared" si="4"/>
+      <c r="W231" s="49">
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
     </row>
@@ -17131,7 +17166,7 @@
       <c r="E232" s="30">
         <v>45003</v>
       </c>
-      <c r="F232" s="55" t="s">
+      <c r="F232" s="47" t="s">
         <v>532</v>
       </c>
       <c r="G232" s="17" t="s">
@@ -17147,7 +17182,7 @@
         <v>130901</v>
       </c>
       <c r="K232" s="22">
-        <f>J232-I232</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="L232" s="23">
@@ -17177,8 +17212,8 @@
       <c r="V232" s="16">
         <v>0</v>
       </c>
-      <c r="W232" s="57">
-        <f t="shared" si="4"/>
+      <c r="W232" s="49">
+        <f t="shared" si="8"/>
         <v>2800</v>
       </c>
     </row>
@@ -17195,7 +17230,7 @@
       <c r="E233" s="30">
         <v>45001</v>
       </c>
-      <c r="F233" s="55" t="s">
+      <c r="F233" s="47" t="s">
         <v>533</v>
       </c>
       <c r="G233" s="17" t="s">
@@ -17211,7 +17246,7 @@
         <v>223142</v>
       </c>
       <c r="K233" s="22">
-        <f>J233-I233</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="L233" s="23" t="s">
@@ -17241,8 +17276,8 @@
       <c r="V233" s="16">
         <v>40</v>
       </c>
-      <c r="W233" s="57">
-        <f t="shared" si="4"/>
+      <c r="W233" s="49">
+        <f t="shared" si="8"/>
         <v>3240</v>
       </c>
     </row>
@@ -17259,7 +17294,7 @@
       <c r="E234" s="30">
         <v>45002</v>
       </c>
-      <c r="F234" s="55" t="s">
+      <c r="F234" s="47" t="s">
         <v>534</v>
       </c>
       <c r="G234" s="17" t="s">
@@ -17275,7 +17310,7 @@
         <v>223217</v>
       </c>
       <c r="K234" s="22">
-        <f>J234-I234</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="L234" s="23" t="s">
@@ -17305,8 +17340,8 @@
       <c r="V234" s="16">
         <v>0</v>
       </c>
-      <c r="W234" s="57">
-        <f t="shared" si="4"/>
+      <c r="W234" s="49">
+        <f t="shared" si="8"/>
         <v>3200</v>
       </c>
     </row>
@@ -17323,7 +17358,7 @@
       <c r="E235" s="30">
         <v>45003</v>
       </c>
-      <c r="F235" s="55" t="s">
+      <c r="F235" s="47" t="s">
         <v>535</v>
       </c>
       <c r="G235" s="17" t="s">
@@ -17339,7 +17374,7 @@
         <v>223302</v>
       </c>
       <c r="K235" s="22">
-        <f>J235-I235</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="L235" s="23" t="s">
@@ -17369,8 +17404,8 @@
       <c r="V235" s="16">
         <v>0</v>
       </c>
-      <c r="W235" s="57">
-        <f t="shared" si="4"/>
+      <c r="W235" s="49">
+        <f t="shared" si="8"/>
         <v>2600</v>
       </c>
     </row>
@@ -17387,7 +17422,7 @@
       <c r="E236" s="30">
         <v>45001</v>
       </c>
-      <c r="F236" s="55" t="s">
+      <c r="F236" s="47" t="s">
         <v>536</v>
       </c>
       <c r="G236" s="17" t="s">
@@ -17403,7 +17438,7 @@
         <v>259659</v>
       </c>
       <c r="K236" s="22">
-        <f>J236-I236</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="L236" s="23" t="s">
@@ -17431,8 +17466,8 @@
       <c r="V236" s="16">
         <v>0</v>
       </c>
-      <c r="W236" s="57">
-        <f t="shared" si="4"/>
+      <c r="W236" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -17449,7 +17484,7 @@
       <c r="E237" s="30">
         <v>45002</v>
       </c>
-      <c r="F237" s="55" t="s">
+      <c r="F237" s="47" t="s">
         <v>537</v>
       </c>
       <c r="G237" s="17" t="s">
@@ -17465,7 +17500,7 @@
         <v>259760</v>
       </c>
       <c r="K237" s="22">
-        <f>J237-I237</f>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="L237" s="23" t="s">
@@ -17495,8 +17530,8 @@
       <c r="V237" s="16">
         <v>0</v>
       </c>
-      <c r="W237" s="57">
-        <f t="shared" si="4"/>
+      <c r="W237" s="49">
+        <f t="shared" si="8"/>
         <v>3800</v>
       </c>
     </row>
@@ -17513,7 +17548,7 @@
       <c r="E238" s="30">
         <v>45003</v>
       </c>
-      <c r="F238" s="55" t="s">
+      <c r="F238" s="47" t="s">
         <v>538</v>
       </c>
       <c r="G238" s="17" t="s">
@@ -17529,7 +17564,7 @@
         <v>259800</v>
       </c>
       <c r="K238" s="22">
-        <f>J238-I238</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="L238" s="23" t="s">
@@ -17557,8 +17592,8 @@
       <c r="V238" s="16">
         <v>0</v>
       </c>
-      <c r="W238" s="57">
-        <f t="shared" si="4"/>
+      <c r="W238" s="49">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
     </row>
@@ -17575,7 +17610,7 @@
       <c r="E239" s="30">
         <v>45000</v>
       </c>
-      <c r="F239" s="55" t="s">
+      <c r="F239" s="47" t="s">
         <v>539</v>
       </c>
       <c r="G239" s="17" t="s">
@@ -17591,7 +17626,7 @@
         <v>20417</v>
       </c>
       <c r="K239" s="22">
-        <f>J239-I239</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="L239" s="23" t="s">
@@ -17619,8 +17654,8 @@
       <c r="V239" s="16">
         <v>40</v>
       </c>
-      <c r="W239" s="57">
-        <f t="shared" si="4"/>
+      <c r="W239" s="49">
+        <f t="shared" si="8"/>
         <v>1040</v>
       </c>
     </row>
@@ -17637,7 +17672,7 @@
       <c r="E240" s="30">
         <v>45001</v>
       </c>
-      <c r="F240" s="55" t="s">
+      <c r="F240" s="47" t="s">
         <v>540</v>
       </c>
       <c r="G240" s="17" t="s">
@@ -17653,7 +17688,7 @@
         <v>20536</v>
       </c>
       <c r="K240" s="22">
-        <f>J240-I240</f>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="L240" s="23" t="s">
@@ -17683,8 +17718,8 @@
       <c r="V240" s="16">
         <v>0</v>
       </c>
-      <c r="W240" s="57">
-        <f t="shared" si="4"/>
+      <c r="W240" s="49">
+        <f t="shared" si="8"/>
         <v>3000</v>
       </c>
     </row>
@@ -17701,7 +17736,7 @@
       <c r="E241" s="30">
         <v>45002</v>
       </c>
-      <c r="F241" s="55" t="s">
+      <c r="F241" s="47" t="s">
         <v>541</v>
       </c>
       <c r="G241" s="17" t="s">
@@ -17717,7 +17752,7 @@
         <v>20598</v>
       </c>
       <c r="K241" s="22">
-        <f>J241-I241</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="L241" s="23" t="s">
@@ -17747,8 +17782,8 @@
       <c r="V241" s="16">
         <v>0</v>
       </c>
-      <c r="W241" s="57">
-        <f t="shared" si="4"/>
+      <c r="W241" s="49">
+        <f t="shared" si="8"/>
         <v>2600</v>
       </c>
     </row>
@@ -17765,7 +17800,7 @@
       <c r="E242" s="30">
         <v>45001</v>
       </c>
-      <c r="F242" s="55" t="s">
+      <c r="F242" s="47" t="s">
         <v>542</v>
       </c>
       <c r="G242" s="17" t="s">
@@ -17781,7 +17816,7 @@
         <v>249120</v>
       </c>
       <c r="K242" s="22">
-        <f>J242-I242</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="L242" s="23" t="s">
@@ -17809,8 +17844,8 @@
       <c r="V242" s="16">
         <v>100</v>
       </c>
-      <c r="W242" s="57">
-        <f t="shared" si="4"/>
+      <c r="W242" s="49">
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
     </row>
@@ -17819,7 +17854,7 @@
       <c r="C243" s="29"/>
       <c r="D243" s="28"/>
       <c r="E243" s="28"/>
-      <c r="F243" s="50"/>
+      <c r="F243" s="42"/>
       <c r="G243" s="15"/>
       <c r="H243" s="15"/>
       <c r="I243" s="15"/>
@@ -17843,7 +17878,7 @@
       <c r="C244" s="9"/>
       <c r="D244" s="18"/>
       <c r="E244" s="18"/>
-      <c r="F244" s="51"/>
+      <c r="F244" s="43"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
@@ -17863,10 +17898,10 @@
         <f>SUM(T6:T243)</f>
         <v>793757</v>
       </c>
-      <c r="U244" s="41" t="s">
+      <c r="U244" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="V244" s="41"/>
+      <c r="V244" s="50"/>
       <c r="W244" s="10">
         <f>SUM(W6:W242)</f>
         <v>829881</v>
@@ -17879,7 +17914,7 @@
       <c r="C245" s="12"/>
       <c r="D245" s="19"/>
       <c r="E245" s="19"/>
-      <c r="F245" s="52"/>
+      <c r="F245" s="44"/>
       <c r="G245" s="12"/>
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
@@ -17902,8 +17937,73 @@
       <c r="D246" s="20"/>
       <c r="E246" s="20"/>
     </row>
+    <row r="247" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S247" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="T247" s="58"/>
+      <c r="U247" s="58"/>
+      <c r="V247" s="58"/>
+      <c r="W247" s="59">
+        <v>829881</v>
+      </c>
+    </row>
+    <row r="248" spans="2:25" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S248" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="T248" s="58"/>
+      <c r="U248" s="58"/>
+      <c r="V248" s="58"/>
+      <c r="W248" s="59">
+        <v>66595</v>
+      </c>
+    </row>
+    <row r="249" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S249" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="T249" s="58"/>
+      <c r="U249" s="58"/>
+      <c r="V249" s="58"/>
+      <c r="W249" s="59">
+        <f>SUM(W247,W248)</f>
+        <v>896476</v>
+      </c>
+    </row>
+    <row r="250" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S250" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="T250" s="58"/>
+      <c r="U250" s="58"/>
+      <c r="V250" s="58"/>
+      <c r="W250" s="59">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="251" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S251" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="T251" s="58"/>
+      <c r="U251" s="58"/>
+      <c r="V251" s="58"/>
+      <c r="W251" s="59">
+        <f>W249-W250</f>
+        <v>396476</v>
+      </c>
+    </row>
+    <row r="254" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="P254" s="60"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="S251:V251"/>
+    <mergeCell ref="S247:V247"/>
+    <mergeCell ref="S249:V249"/>
+    <mergeCell ref="S248:V248"/>
+    <mergeCell ref="S250:V250"/>
     <mergeCell ref="U244:V244"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="C3:H3"/>
